--- a/interview preparation.xlsx
+++ b/interview preparation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARIJIT\Documents\Program-Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARIJIT\Documents\500-Code-Challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3070,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC928"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:XFD79"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193:XFD193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9124,44 +9124,44 @@
       <c r="AB151" s="6"/>
       <c r="AC151" s="6"/>
     </row>
-    <row r="152" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152">
+    <row r="152" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="9">
         <v>153</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="9">
         <v>5</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
-      <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
-      <c r="N152" s="1"/>
-      <c r="O152" s="1"/>
-      <c r="P152" s="1"/>
-      <c r="Q152" s="1"/>
-      <c r="R152" s="1"/>
-      <c r="S152" s="1"/>
-      <c r="T152" s="1"/>
-      <c r="U152" s="1"/>
-      <c r="V152" s="1"/>
-      <c r="W152" s="1"/>
-      <c r="X152" s="1"/>
-      <c r="Y152" s="1"/>
-      <c r="Z152" s="1"/>
-      <c r="AA152" s="1"/>
-      <c r="AB152" s="1"/>
-      <c r="AC152" s="1"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
+      <c r="Q152" s="11"/>
+      <c r="R152" s="11"/>
+      <c r="S152" s="11"/>
+      <c r="T152" s="11"/>
+      <c r="U152" s="11"/>
+      <c r="V152" s="11"/>
+      <c r="W152" s="11"/>
+      <c r="X152" s="11"/>
+      <c r="Y152" s="11"/>
+      <c r="Z152" s="11"/>
+      <c r="AA152" s="11"/>
+      <c r="AB152" s="11"/>
+      <c r="AC152" s="11"/>
     </row>
     <row r="153" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153">
@@ -10699,44 +10699,44 @@
       <c r="AB192" s="3"/>
       <c r="AC192" s="3"/>
     </row>
-    <row r="193" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193">
+    <row r="193" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="9">
         <v>194</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="9">
         <v>7</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
-      <c r="L193" s="3"/>
-      <c r="M193" s="3"/>
-      <c r="N193" s="3"/>
-      <c r="O193" s="3"/>
-      <c r="P193" s="3"/>
-      <c r="Q193" s="3"/>
-      <c r="R193" s="3"/>
-      <c r="S193" s="3"/>
-      <c r="T193" s="3"/>
-      <c r="U193" s="3"/>
-      <c r="V193" s="3"/>
-      <c r="W193" s="3"/>
-      <c r="X193" s="3"/>
-      <c r="Y193" s="3"/>
-      <c r="Z193" s="3"/>
-      <c r="AA193" s="3"/>
-      <c r="AB193" s="3"/>
-      <c r="AC193" s="3"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="10"/>
+      <c r="K193" s="10"/>
+      <c r="L193" s="10"/>
+      <c r="M193" s="10"/>
+      <c r="N193" s="10"/>
+      <c r="O193" s="10"/>
+      <c r="P193" s="10"/>
+      <c r="Q193" s="10"/>
+      <c r="R193" s="10"/>
+      <c r="S193" s="10"/>
+      <c r="T193" s="10"/>
+      <c r="U193" s="10"/>
+      <c r="V193" s="10"/>
+      <c r="W193" s="10"/>
+      <c r="X193" s="10"/>
+      <c r="Y193" s="10"/>
+      <c r="Z193" s="10"/>
+      <c r="AA193" s="10"/>
+      <c r="AB193" s="10"/>
+      <c r="AC193" s="10"/>
     </row>
     <row r="194" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194">

--- a/interview preparation.xlsx
+++ b/interview preparation.xlsx
@@ -2755,7 +2755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
@@ -2786,6 +2786,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -3070,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC928"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A193" sqref="A193:XFD193"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="A246" sqref="A246:XFD246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12781,44 +12784,44 @@
       <c r="AB245" s="3"/>
       <c r="AC245" s="3"/>
     </row>
-    <row r="246" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246">
+    <row r="246" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="9">
         <v>247</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="9">
         <v>8</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E246" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="H246" s="2"/>
-      <c r="I246" s="2"/>
-      <c r="J246" s="2"/>
-      <c r="K246" s="2"/>
-      <c r="L246" s="2"/>
-      <c r="M246" s="2"/>
-      <c r="N246" s="2"/>
-      <c r="O246" s="2"/>
-      <c r="P246" s="2"/>
-      <c r="Q246" s="2"/>
-      <c r="R246" s="2"/>
-      <c r="S246" s="2"/>
-      <c r="T246" s="2"/>
-      <c r="U246" s="2"/>
-      <c r="V246" s="2"/>
-      <c r="W246" s="2"/>
-      <c r="X246" s="2"/>
-      <c r="Y246" s="2"/>
-      <c r="Z246" s="2"/>
-      <c r="AA246" s="2"/>
-      <c r="AB246" s="2"/>
-      <c r="AC246" s="2"/>
+      <c r="H246" s="12"/>
+      <c r="I246" s="12"/>
+      <c r="J246" s="12"/>
+      <c r="K246" s="12"/>
+      <c r="L246" s="12"/>
+      <c r="M246" s="12"/>
+      <c r="N246" s="12"/>
+      <c r="O246" s="12"/>
+      <c r="P246" s="12"/>
+      <c r="Q246" s="12"/>
+      <c r="R246" s="12"/>
+      <c r="S246" s="12"/>
+      <c r="T246" s="12"/>
+      <c r="U246" s="12"/>
+      <c r="V246" s="12"/>
+      <c r="W246" s="12"/>
+      <c r="X246" s="12"/>
+      <c r="Y246" s="12"/>
+      <c r="Z246" s="12"/>
+      <c r="AA246" s="12"/>
+      <c r="AB246" s="12"/>
+      <c r="AC246" s="12"/>
     </row>
     <row r="247" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247">

--- a/interview preparation.xlsx
+++ b/interview preparation.xlsx
@@ -3073,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC928"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="A246" sqref="A246:XFD246"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="A267" sqref="A267:XFD267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13609,44 +13609,44 @@
       <c r="AB266" s="1"/>
       <c r="AC266" s="1"/>
     </row>
-    <row r="267" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267">
+    <row r="267" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="9">
         <v>268</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="9">
         <v>9</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E267" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="H267" s="1"/>
-      <c r="I267" s="1"/>
-      <c r="J267" s="1"/>
-      <c r="K267" s="1"/>
-      <c r="L267" s="1"/>
-      <c r="M267" s="1"/>
-      <c r="N267" s="1"/>
-      <c r="O267" s="1"/>
-      <c r="P267" s="1"/>
-      <c r="Q267" s="1"/>
-      <c r="R267" s="1"/>
-      <c r="S267" s="1"/>
-      <c r="T267" s="1"/>
-      <c r="U267" s="1"/>
-      <c r="V267" s="1"/>
-      <c r="W267" s="1"/>
-      <c r="X267" s="1"/>
-      <c r="Y267" s="1"/>
-      <c r="Z267" s="1"/>
-      <c r="AA267" s="1"/>
-      <c r="AB267" s="1"/>
-      <c r="AC267" s="1"/>
+      <c r="H267" s="11"/>
+      <c r="I267" s="11"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="11"/>
+      <c r="L267" s="11"/>
+      <c r="M267" s="11"/>
+      <c r="N267" s="11"/>
+      <c r="O267" s="11"/>
+      <c r="P267" s="11"/>
+      <c r="Q267" s="11"/>
+      <c r="R267" s="11"/>
+      <c r="S267" s="11"/>
+      <c r="T267" s="11"/>
+      <c r="U267" s="11"/>
+      <c r="V267" s="11"/>
+      <c r="W267" s="11"/>
+      <c r="X267" s="11"/>
+      <c r="Y267" s="11"/>
+      <c r="Z267" s="11"/>
+      <c r="AA267" s="11"/>
+      <c r="AB267" s="11"/>
+      <c r="AC267" s="11"/>
     </row>
     <row r="268" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268">
@@ -34770,278 +34770,278 @@
     <hyperlink ref="D270" r:id="rId263" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/detect-and-remove-loop-in-a-linked-list/&amp;sa=D&amp;ust=1597322501620000&amp;usg=AFQjCNE5yEsCaKXRXqBHmDBzT1LlYefYSw"/>
     <hyperlink ref="D269" r:id="rId264" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/nth-node-from-the-end-of-a-linked-list/&amp;sa=D&amp;ust=1597322501619000&amp;usg=AFQjCNEDErpv8liZKYXt6GHGlDQ5OUEsbw"/>
     <hyperlink ref="D268" r:id="rId265" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-first-non-repeating-character-stream-characters/&amp;sa=D&amp;ust=1597322501618000&amp;usg=AFQjCNELZrd9mnhHvPPPznuk9nKakLOG1g"/>
-    <hyperlink ref="D267" r:id="rId266" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-only-a-pointer-to-a-node-to-be-deleted-in-a-singly-linked-list-how-do-you-delete-it/&amp;sa=D&amp;ust=1597322501617000&amp;usg=AFQjCNEbQswwh_TW0ilaEY7-jjacbmUsSQ"/>
-    <hyperlink ref="D266" r:id="rId267" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/queue-based-approach-for-first-non-repeating-character-in-a-stream/&amp;sa=D&amp;ust=1597322501616000&amp;usg=AFQjCNHhrIqvwAj6xQ2EoTvX0EHbyV-g5g"/>
-    <hyperlink ref="D265" r:id="rId268" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/stack-set-4-evaluation-postfix-expression/&amp;sa=D&amp;ust=1597322501614000&amp;usg=AFQjCNHwpl7nbc8kfEhEwbjlbtaPUeC-0w"/>
-    <hyperlink ref="D264" r:id="rId269" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/sort-a-stack-using-recursion/&amp;sa=D&amp;ust=1597322501613000&amp;usg=AFQjCNHLmRh9mBdTGa2d6ffL0ONbyCL9AQ"/>
-    <hyperlink ref="D263" r:id="rId270" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-natural-numbers-whose-permutation-greater-number/&amp;sa=D&amp;ust=1597322501611000&amp;usg=AFQjCNEmjn8lL7yqilssXHB7Ko7wEeDyZg"/>
-    <hyperlink ref="D262" r:id="rId271" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/stack-permutations-check-if-an-array-is-stack-permutation-of-other/&amp;sa=D&amp;ust=1597322501610000&amp;usg=AFQjCNEvZK7sFrB824Pn-GoQCj0mar0lmw"/>
-    <hyperlink ref="D261" r:id="rId272" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/sum-minimum-maximum-elements-subarrays-size-k/&amp;sa=D&amp;ust=1597322501609000&amp;usg=AFQjCNFo6rM1hXaSaVDcW5dsr-pqnZ5iRg"/>
-    <hyperlink ref="D260" r:id="rId273" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-time-required-so-that-all-oranges-become-rotten/&amp;sa=D&amp;ust=1597322501608000&amp;usg=AFQjCNEfg7jZ0m2zCxKpMRPXT5Qz_MTG0w"/>
-    <hyperlink ref="D259" r:id="rId274" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-a-tour-that-visits-all-stations/&amp;sa=D&amp;ust=1597322501607000&amp;usg=AFQjCNEwhBaU8dxFgzQlBrjytw1HlVRe2g"/>
-    <hyperlink ref="D258" r:id="rId275" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/efficiently-implement-k-queues-single-array/&amp;sa=D&amp;ust=1597322501606000&amp;usg=AFQjCNE9noBIhJ7R-DLDnCSLCLM6aPyQCg"/>
-    <hyperlink ref="D257" r:id="rId276" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/lru-cache-implementation/&amp;sa=D&amp;ust=1597322501605000&amp;usg=AFQjCNEzko3KeDAxQYm1oGO8G84haQe3YA"/>
-    <hyperlink ref="D256" r:id="rId277" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-expression-duplicate-parenthesis-not/&amp;sa=D&amp;ust=1597322501604000&amp;usg=AFQjCNEQZliMO0imTF0UCDkjbfRA5iRz2A"/>
-    <hyperlink ref="E255" r:id="rId278" display="https://www.google.com/url?q=https://leetcode.com/articles/longest-valid-parentheses/&amp;sa=D&amp;ust=1597322501602000&amp;usg=AFQjCNFLCoAPK5F9BFzsXiqKkmvjCHjDLQ"/>
-    <hyperlink ref="D255" r:id="rId279" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/&amp;sa=D&amp;ust=1597322501602000&amp;usg=AFQjCNH87fbJpbZ0U6z9rhWU0yVBbDD4Nw"/>
-    <hyperlink ref="D254" r:id="rId280" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-the-maximum-of-minimums-for-every-window-size-in-a-given-array/&amp;sa=D&amp;ust=1597322501601000&amp;usg=AFQjCNEL_AuQ_hFfSn9yp7JfEO9OK1sCPQ"/>
-    <hyperlink ref="D253" r:id="rId281" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/design-and-implement-special-stack-data-structure/&amp;sa=D&amp;ust=1597322501600000&amp;usg=AFQjCNFu8nMC3o78N3Y6aDj3Fx1nviMVTQ"/>
-    <hyperlink ref="D252" r:id="rId282" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/iterative-tower-of-hanoi/&amp;sa=D&amp;ust=1597322501599000&amp;usg=AFQjCNGBKeK2wS-mLCdyszvyzS-yclO3dg"/>
-    <hyperlink ref="D251" r:id="rId283" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/the-celebrity-problem/&amp;sa=D&amp;ust=1597322501598000&amp;usg=AFQjCNGWrlgKdl5CX4WPTHFCFzade2wHsw"/>
-    <hyperlink ref="D250" r:id="rId284" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/stack-set-2-infix-to-postfix/&amp;sa=D&amp;ust=1597322501597000&amp;usg=AFQjCNHi5EAtPn_lEOgzeUIKFQnpgNYdSg"/>
-    <hyperlink ref="D249" r:id="rId285" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/implement-stack-using-priority-queue-or-heap/&amp;sa=D&amp;ust=1597322501596000&amp;usg=AFQjCNEIV-WqllEGuu-f87eWfd7_RESCrA"/>
-    <hyperlink ref="D248" r:id="rId286" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/efficiently-implement-k-stacks-single-array/&amp;sa=D&amp;ust=1597322501595000&amp;usg=AFQjCNEZpJTAA0At342AXqHXlc2eMD2uuw"/>
-    <hyperlink ref="D247" r:id="rId287" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/design-a-stack-with-find-middle-operation/&amp;sa=D&amp;ust=1597322501594000&amp;usg=AFQjCNFAu3mxuKRplxaygOHlxBVbMcoAeg"/>
-    <hyperlink ref="D246" r:id="rId288" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/implement-two-stacks-in-an-array/&amp;sa=D&amp;ust=1597322501593000&amp;usg=AFQjCNEDmFi0tagufrF0yeDn9m9669QaWw"/>
-    <hyperlink ref="D245" r:id="rId289" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-maximum-values-expression/&amp;sa=D&amp;ust=1597322501593000&amp;usg=AFQjCNHy9dfqzTrpnaaXq9EB0CfJzBZ2zA"/>
-    <hyperlink ref="D244" r:id="rId290" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-sum-alternating-subsequence-sum/&amp;sa=D&amp;ust=1597322501593000&amp;usg=AFQjCNFvF3mPTuXznG_BLRfNb9w-dt8Qaw"/>
-    <hyperlink ref="D243" r:id="rId291" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/highway-billboard-problem/&amp;sa=D&amp;ust=1597322501592000&amp;usg=AFQjCNGWKUF1srMuu5Vwl3d9Vf4epRU2Bw"/>
-    <hyperlink ref="D242" r:id="rId292" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/temple-offerings/&amp;sa=D&amp;ust=1597322501592000&amp;usg=AFQjCNE7QcULVTJg_VEEceyGr4Gu-XpDpA"/>
-    <hyperlink ref="D241" r:id="rId293" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/shortest-uncommon-subsequence/&amp;sa=D&amp;ust=1597322501591000&amp;usg=AFQjCNG_JJu-dlgHFRq2RpPUC5pEqq0nTQ"/>
-    <hyperlink ref="D240" r:id="rId294" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-distinct-subsequences/&amp;sa=D&amp;ust=1597322501591000&amp;usg=AFQjCNGQC4E3TNeyVOeH3bzC47GF7jiWrQ"/>
-    <hyperlink ref="D239" r:id="rId295" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-sum-path-3-d-array/&amp;sa=D&amp;ust=1597322501590000&amp;usg=AFQjCNGKyMiNKRIpkZm5TADAkz1cDxYegA"/>
-    <hyperlink ref="D238" r:id="rId296" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-if-string-is-k-palindrome-or-not/&amp;sa=D&amp;ust=1597322501590000&amp;usg=AFQjCNGez6VTklaTAEyrIiVyYfa_K9lucQ"/>
-    <hyperlink ref="D237" r:id="rId297" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/longest-common-increasing-subsequence-lcs-lis/&amp;sa=D&amp;ust=1597322501589000&amp;usg=AFQjCNFy-9ddg1Em5nMIFjbCWNCYr9I-Ew"/>
-    <hyperlink ref="D236" r:id="rId298" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/longest-repeating-subsequence/&amp;sa=D&amp;ust=1597322501589000&amp;usg=AFQjCNHSENLZJoLZzcK6uN9SBTOK-uDjCg"/>
-    <hyperlink ref="D235" r:id="rId299" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/bitmasking-and-dynamic-programming-set-1-count-ways-to-assign-unique-cap-to-every-person/&amp;sa=D&amp;ust=1597322501589000&amp;usg=AFQjCNFD2I1GSkdz9mLpjOUK-UKbtjlH2Q"/>
-    <hyperlink ref="D234" r:id="rId300" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-possible-ways-to-construct-buildings/&amp;sa=D&amp;ust=1597322501588000&amp;usg=AFQjCNFWVigw89_E5iawXClWDj5lOyV1WQ"/>
-    <hyperlink ref="D233" r:id="rId301" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/longest-even-length-substring-sum-first-second-half/&amp;sa=D&amp;ust=1597322501588000&amp;usg=AFQjCNGlgCenqkC75MtrKEX5kTQlP3ZIMw"/>
-    <hyperlink ref="D232" r:id="rId302" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/vertex-cover-problem-set-2-dynamic-programming-solution-tree/&amp;sa=D&amp;ust=1597322501587000&amp;usg=AFQjCNFjUrYVYf8Zo1XRaz_4LLEUYYUuLw"/>
-    <hyperlink ref="D231" r:id="rId303" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/perfect-sum-problem-print-subsets-given-sum/&amp;sa=D&amp;ust=1597322501587000&amp;usg=AFQjCNHfUqd4_vDpeNTFcHrKRdDhSSAZzg"/>
-    <hyperlink ref="D230" r:id="rId304" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-possible-decodings-given-digit-sequence/&amp;sa=D&amp;ust=1597322501586000&amp;usg=AFQjCNHUtjt6yoAcFSwgTlGWSQ4nIWPLjg"/>
-    <hyperlink ref="D229" r:id="rId305" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-37-boolean-parenthesization-problem/&amp;sa=D&amp;ust=1597322501586000&amp;usg=AFQjCNFG4qwRybqQdfXHNCOH5r6ciUblnA"/>
-    <hyperlink ref="D228" r:id="rId306" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/&amp;sa=D&amp;ust=1597322501585000&amp;usg=AFQjCNHl-uKcU_pPd8fh8duMNv6k0n_uNQ"/>
-    <hyperlink ref="D227" r:id="rId307" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/unbounded-knapsack-repetition-items-allowed/&amp;sa=D&amp;ust=1597322501585000&amp;usg=AFQjCNG9JSBBnpGrPh42SXdYT-H-OxqKiQ"/>
-    <hyperlink ref="D226" r:id="rId308" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/number-subsequences-form-ai-bj-ck/&amp;sa=D&amp;ust=1597322501585000&amp;usg=AFQjCNEifaemm79zr45p8Lnauh_t46Ulcg"/>
-    <hyperlink ref="D225" r:id="rId309" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/remove-minimum-elements-either-side-2min-max/&amp;sa=D&amp;ust=1597322501584000&amp;usg=AFQjCNGQfXpIy6KT_YisfFSdeDDoesOx5g"/>
-    <hyperlink ref="D224" r:id="rId310" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-water-in-a-glass/&amp;sa=D&amp;ust=1597322501584000&amp;usg=AFQjCNFkpHiQHyJBl7YERaBtOVe-l0t_og"/>
-    <hyperlink ref="D223" r:id="rId311" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/largest-sum-subarray-least-k-numbers/&amp;sa=D&amp;ust=1597322501583000&amp;usg=AFQjCNGtagItsC3Tfz2FDtZ1R1A98Z9NDw"/>
-    <hyperlink ref="D222" r:id="rId312" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-18-word-wrap/&amp;sa=D&amp;ust=1597322501583000&amp;usg=AFQjCNEvqs9YQ7VhJhnZl5lhBEwzLZ-7TA"/>
-    <hyperlink ref="D221" r:id="rId313" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/two-water-jug-puzzle/&amp;sa=D&amp;ust=1597322501582000&amp;usg=AFQjCNEFsq99kqD08zEPZZbIZYRe4UZQnQ"/>
-    <hyperlink ref="D220" r:id="rId314" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/probability-knight-remain-chessboard/&amp;sa=D&amp;ust=1597322501582000&amp;usg=AFQjCNH6AqcL6eRzLWy_GR-cuP-nBLxBcg"/>
-    <hyperlink ref="D219" r:id="rId315" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/wildcard-pattern-matching/&amp;sa=D&amp;ust=1597322501581000&amp;usg=AFQjCNHYr95mDM66UTRtfRWGWcux4-PJ1w"/>
-    <hyperlink ref="D218" r:id="rId316" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/check-whether-a-given-string-is-an-interleaving-of-two-other-given-strings-set-2/&amp;sa=D&amp;ust=1597322501581000&amp;usg=AFQjCNGHRdjVEnRAU2rXtogaSme_kX-mOw"/>
-    <hyperlink ref="D217" r:id="rId317" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/painters-partition-problem/&amp;sa=D&amp;ust=1597322501579000&amp;usg=AFQjCNGfCEVcpF-rwb0Dns57ehi8JyCFMA"/>
-    <hyperlink ref="D216" r:id="rId318" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-number-binary-strings-without-consecutive-1s/&amp;sa=D&amp;ust=1597322501579000&amp;usg=AFQjCNGtdUp32jOKf4MxBRL8PosDAkDMbw"/>
-    <hyperlink ref="G215" r:id="rId319" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-number-of-ways-to-fill-a-n-x-4-grid-using-1-x-4-tiles/&amp;sa=D&amp;ust=1597322501578000&amp;usg=AFQjCNEWMuFJUvDTeh84us_6JZsvMk1g3A"/>
-    <hyperlink ref="D215" r:id="rId320" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-number-ways-tile-floor-size-n-x-m-using-1-x-m-size-tiles/&amp;sa=D&amp;ust=1597322501578000&amp;usg=AFQjCNG_7xf9FDugBiz4IRx_dHrzpt3B4w"/>
-    <hyperlink ref="D214" r:id="rId321" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-number-of-solutions-of-a-linear-equation-of-n-variables/&amp;sa=D&amp;ust=1597322501578000&amp;usg=AFQjCNHiiK6uPSNLnWQH1LKbdjTg9rAMZw"/>
-    <hyperlink ref="D213" r:id="rId322" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/mobile-numeric-keypad-problem/&amp;sa=D&amp;ust=1597322501577000&amp;usg=AFQjCNERTbAj3F1izV4s8bL8UDCw21Miew"/>
-    <hyperlink ref="D212" r:id="rId323" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-32-word-break-problem/&amp;sa=D&amp;ust=1597322501577000&amp;usg=AFQjCNFymFcUzmlzD5FUsNbeYjDMperXmA"/>
-    <hyperlink ref="D211" r:id="rId324" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-31-optimal-strategy-for-a-game/&amp;sa=D&amp;ust=1597322501577000&amp;usg=AFQjCNEpk_NSQEkvO8hWb_QUZxwN6Eiy6A"/>
-    <hyperlink ref="D210" r:id="rId325" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-36-cut-a-rope-to-maximize-product/&amp;sa=D&amp;ust=1597322501576000&amp;usg=AFQjCNHZU5vfjmRTHgpAn935psoGTkLLFw"/>
-    <hyperlink ref="D209" r:id="rId326" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-28-minimum-insertions-to-form-a-palindrome/&amp;sa=D&amp;ust=1597322501576000&amp;usg=AFQjCNFqc4rA2UxRp-Bo07xLlN1JqaJg2Q"/>
-    <hyperlink ref="D208" r:id="rId327" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-24-optimal-binary-search-tree/&amp;sa=D&amp;ust=1597322501575000&amp;usg=AFQjCNFHmA8G6TCljt4Jm_euczAZFoDwUQ"/>
-    <hyperlink ref="D207" r:id="rId328" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-21-box-stacking-problem/&amp;sa=D&amp;ust=1597322501575000&amp;usg=AFQjCNE04bXwMJiryN1OdNp0U2nUOcshAw"/>
-    <hyperlink ref="D206" r:id="rId329" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-11-egg-dropping-puzzle/&amp;sa=D&amp;ust=1597322501574000&amp;usg=AFQjCNFqYqTY2YYx_E9egB8NytZx4St2ug"/>
-    <hyperlink ref="D205" r:id="rId330" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-12-longest-palindromic-subsequence/&amp;sa=D&amp;ust=1597322501574000&amp;usg=AFQjCNGq7Y_pU3p2KyZnE4qqrI52IwOXDg"/>
-    <hyperlink ref="D204" r:id="rId331" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-number-of-ways-to-partition-a-set-into-k-subsets/&amp;sa=D&amp;ust=1597322501574000&amp;usg=AFQjCNHOzDDjNOdt3AMFb234-LTZMdjLEg"/>
-    <hyperlink ref="D203" r:id="rId332" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-18-partition-problem/&amp;sa=D&amp;ust=1597322501573000&amp;usg=AFQjCNEsocEqLgBS7GtrEXVNVzWUyq9aeQ"/>
-    <hyperlink ref="D202" r:id="rId333" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-building-bridges/&amp;sa=D&amp;ust=1597322501573000&amp;usg=AFQjCNHqNophlMu7AW8z3ubRFASok2x_dw"/>
-    <hyperlink ref="D201" r:id="rId334" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/friends-pairing-problem/&amp;sa=D&amp;ust=1597322501572000&amp;usg=AFQjCNFiypsn8HZ81pTAOhXTWMeN3ApcdQ"/>
-    <hyperlink ref="D200" r:id="rId335" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/lcs-longest-common-subsequence-three-strings/&amp;sa=D&amp;ust=1597322501572000&amp;usg=AFQjCNFVseqwI_V5TtS8F2ot5u81OF4Eqw"/>
-    <hyperlink ref="D199" r:id="rId336" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-sum-bi-tonic-sub-sequence/&amp;sa=D&amp;ust=1597322501571000&amp;usg=AFQjCNEJ5amxG0Gm-Z6HIllc1KYQtwp3yQ"/>
-    <hyperlink ref="D198" r:id="rId337" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-15-longest-bitonic-subsequence/&amp;sa=D&amp;ust=1597322501571000&amp;usg=AFQjCNEdVlWMlJncBtyFTL8Jx__OH5UvqQ"/>
-    <hyperlink ref="D197" r:id="rId338" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-number-of-jumps-to-reach-end-of-a-given-array/&amp;sa=D&amp;ust=1597322501571000&amp;usg=AFQjCNG71fLWRCBPJq2fhFeUKfKyqbaPAA"/>
-    <hyperlink ref="D196" r:id="rId339" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-subset-sum-problem/&amp;sa=D&amp;ust=1597322501570000&amp;usg=AFQjCNHvpEsPrH8cM7ZIEYcUk49UcKtH6Q"/>
-    <hyperlink ref="D195" r:id="rId340" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-size-sub-matrix-with-all-1s-in-a-binary-matrix/&amp;sa=D&amp;ust=1597322501570000&amp;usg=AFQjCNFwt1w-Kq14KeRFT8elJSMjzWzIsg"/>
-    <hyperlink ref="D194" r:id="rId341" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/super-ugly-number-number-whose-prime-factors-given-set/&amp;sa=D&amp;ust=1597322501569000&amp;usg=AFQjCNF6Lw7OG-h4wUlKcM5-u4yyyHtNpQ"/>
-    <hyperlink ref="D193" r:id="rId342" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/ugly-numbers/&amp;sa=D&amp;ust=1597322501569000&amp;usg=AFQjCNF5il1OAjGIBTHucuG1EvE7-w_GUQ"/>
-    <hyperlink ref="D192" r:id="rId343" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-edges-reverse-make-path-source-destination/&amp;sa=D&amp;ust=1597322501568000&amp;usg=AFQjCNFdeE5lXRigN__Hf3VH0f3iH8yAPw"/>
-    <hyperlink ref="D191" r:id="rId344" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimize-cash-flow-among-given-set-friends-borrowed-money/&amp;sa=D&amp;ust=1597322501568000&amp;usg=AFQjCNHJG2p839GqeC57vgzy0u8_gYR_0A"/>
-    <hyperlink ref="D190" r:id="rId345" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-cost-cut-board-squares/&amp;sa=D&amp;ust=1597322501567000&amp;usg=AFQjCNEodxjNC8sdFT5-17FWtdwKK3TIbQ"/>
-    <hyperlink ref="D189" r:id="rId346" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximize-array-sun-after-k-negation-operations/&amp;sa=D&amp;ust=1597322501567000&amp;usg=AFQjCNHE8uoQbGBxnjNEdUT_WEGUVnFf2Q"/>
-    <hyperlink ref="D188" r:id="rId347" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-maximum-sum-possible-equal-sum-three-stacks/&amp;sa=D&amp;ust=1597322501567000&amp;usg=AFQjCNFUThI5bLPgp1RzRJU3JHfI_Qm97g"/>
-    <hyperlink ref="D187" r:id="rId348" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-cost-for-acquiring-all-coins-with-k-extra-coins-allowed-with-every-coin/&amp;sa=D&amp;ust=1597322501566000&amp;usg=AFQjCNHAIvhNkca-iOFqAl-KWJPdiiExSg"/>
-    <hyperlink ref="D186" r:id="rId349" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-maximum-height-pyramid-from-the-given-array-of-objects/&amp;sa=D&amp;ust=1597322501566000&amp;usg=AFQjCNH-LAD41_R1QULMSZr8NsODMyTBfg"/>
-    <hyperlink ref="D185" r:id="rId350" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/rearrange-characters-string-no-two-adjacent/&amp;sa=D&amp;ust=1597322501565000&amp;usg=AFQjCNHLr2hSmsuDJ9p3kRFRNvE6nm0Bbg"/>
-    <hyperlink ref="D184" r:id="rId351" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/lexicographically-smallest-array-k-consecutive-swaps/&amp;sa=D&amp;ust=1597322501565000&amp;usg=AFQjCNEF2GrBzy6fqOzVSF0AbBPe0B0ipw"/>
-    <hyperlink ref="D183" r:id="rId352" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/paper-cut-minimum-number-squares/&amp;sa=D&amp;ust=1597322501564000&amp;usg=AFQjCNENIj-vpwgmtACL_XUw10kCwRvahg"/>
-    <hyperlink ref="D182" r:id="rId353" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximize-sum-consecutive-differences-circular-array/&amp;sa=D&amp;ust=1597322501564000&amp;usg=AFQjCNGtovlNLZrtIa9MSjWBUsDwzs6TtQ"/>
-    <hyperlink ref="D181" r:id="rId354" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-sum-absolute-difference-pairs-two-arrays/&amp;sa=D&amp;ust=1597322501564000&amp;usg=AFQjCNHxBtgCZJwiPT8Cdwf6iuzQ0WvkhA"/>
-    <hyperlink ref="D180" r:id="rId355" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-smallest-number-with-given-number-of-digits-and-digit-sum/&amp;sa=D&amp;ust=1597322501563000&amp;usg=AFQjCNHdJA4oBDvGseMpXlCzlDWbWkqNag"/>
-    <hyperlink ref="D179" r:id="rId356" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-sum-two-numbers-formed-digits-array-2/&amp;sa=D&amp;ust=1597322501563000&amp;usg=AFQjCNGroN-IDbAdHSZ5d5PUzZuSPeDlgA"/>
-    <hyperlink ref="D178" r:id="rId357" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/job-sequencing-using-disjoint-set-union/&amp;sa=D&amp;ust=1597322501562000&amp;usg=AFQjCNGafm9kPyPcYrjP1iIN1XiJ4KkUYw"/>
-    <hyperlink ref="D177" r:id="rId358" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-minimum-time-to-finish-all-jobs-with-given-constraints/&amp;sa=D&amp;ust=1597322501561000&amp;usg=AFQjCNFsf3dDQeIb2aPE458Sgg-a_JpI7Q"/>
-    <hyperlink ref="D176" r:id="rId359" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-20-maximum-length-chain-of-pairs/&amp;sa=D&amp;ust=1597322501561000&amp;usg=AFQjCNGmJ6_4f6XCmyNle2PTF1-znA8ixA"/>
-    <hyperlink ref="D175" r:id="rId360" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/greedy-algorithm-to-find-minimum-number-of-coins/&amp;sa=D&amp;ust=1597322501560000&amp;usg=AFQjCNGwBEtaXfP18-vdBuVQmlSdXwNimg"/>
-    <hyperlink ref="D174" r:id="rId361" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/fractional-knapsack-problem/&amp;sa=D&amp;ust=1597322501559000&amp;usg=AFQjCNHXxR6pF2rvXlqQI6rlqmfLUGKRww"/>
-    <hyperlink ref="D173" r:id="rId362" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/greedy-algorithm-egyptian-fraction/&amp;sa=D&amp;ust=1597322501559000&amp;usg=AFQjCNH8KK2RZrP4G1KLq9g-z6kBDWyceQ"/>
-    <hyperlink ref="D172" r:id="rId363" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/job-sequencing-problem-set-1-greedy-algorithm/&amp;sa=D&amp;ust=1597322501559000&amp;usg=AFQjCNEXuodH2XDKh8bfVfg9tdaQs8po9Q"/>
-    <hyperlink ref="D171" r:id="rId364" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/greedy-algorithms-set-1-activity-selection-problem/&amp;sa=D&amp;ust=1597322501558000&amp;usg=AFQjCNGPtEQx772-0jkiUXPzQx3RYKxutw"/>
-    <hyperlink ref="D170" r:id="rId365" display="https://www.google.com/url?q=https://www.hackerrank.com/challenges/crossword-puzzle/problem&amp;sa=D&amp;ust=1597322501557000&amp;usg=AFQjCNEmWvymnC_8BQRMyqunDwjiY3mFWg"/>
-    <hyperlink ref="D169" r:id="rId366" display="https://www.google.com/url?q=https://www.hackerrank.com/challenges/arithmetic-expressions/problem&amp;sa=D&amp;ust=1597322501556000&amp;usg=AFQjCNFTgQoDEtEFtlO0asfhpmARvYOT9g"/>
-    <hyperlink ref="D168" r:id="rId367" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-paths-from-corner-cell-to-middle-cell-in-maze/&amp;sa=D&amp;ust=1597322501555000&amp;usg=AFQjCNH3NTs5RDI0I5tKcie7g4OFLk4Shg"/>
-    <hyperlink ref="D167" r:id="rId368" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-maximum-number-possible-by-doing-at-most-k-swaps/&amp;sa=D&amp;ust=1597322501554000&amp;usg=AFQjCNG8LNfkaPvc3lsiY-Pu6-cpcnHTIA"/>
-    <hyperlink ref="D166" r:id="rId369" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/tug-of-war/&amp;sa=D&amp;ust=1597322501553000&amp;usg=AFQjCNGK7g-yR4ure5OlgSYhjENDSMBcXg"/>
-    <hyperlink ref="D165" r:id="rId370" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/backtracking-set-7-hamiltonian-cycle/&amp;sa=D&amp;ust=1597322501552000&amp;usg=AFQjCNGZFZ4CGCW61cm4nAxYs3QI8Fu51g"/>
-    <hyperlink ref="D164" r:id="rId371" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-if-there-is-a-path-of-more-than-k-length-from-a-source/&amp;sa=D&amp;ust=1597322501551000&amp;usg=AFQjCNErfKBuq4DZlehXkcG7E2ljJggNSw"/>
-    <hyperlink ref="D163" r:id="rId372" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/match-a-pattern-and-string-without-using-regular-expressions/&amp;sa=D&amp;ust=1597322501551000&amp;usg=AFQjCNH1MR6x-QpL8sQbmWAhCA3Q18RXAA"/>
-    <hyperlink ref="D162" r:id="rId373" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/backtracking-set-8-solving-cryptarithmetic-puzzles/&amp;sa=D&amp;ust=1597322501549000&amp;usg=AFQjCNFyTy8Kf2alfmR8k6Jx6Q_G2okbNQ"/>
-    <hyperlink ref="D161" r:id="rId374" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/longest-possible-route-in-a-matrix-with-hurdles/&amp;sa=D&amp;ust=1597322501548000&amp;usg=AFQjCNEoM3Dq--GDEcO_8VqzfYE1_PRrjA"/>
-    <hyperlink ref="D160" r:id="rId375" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/partition-set-k-subsets-equal-sum/&amp;sa=D&amp;ust=1597322501548000&amp;usg=AFQjCNGSflYx-NQVM5Ji_4WOHIsp7PHr0g"/>
-    <hyperlink ref="D159" r:id="rId376" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/combinational-sum/&amp;sa=D&amp;ust=1597322501547000&amp;usg=AFQjCNHFQK42KbovKNDxQNhNACHCBxH6Uw"/>
-    <hyperlink ref="D158" r:id="rId377" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-shortest-safe-route-in-a-path-with-landmines/&amp;sa=D&amp;ust=1597322501546000&amp;usg=AFQjCNGmAiXSCWWFzFG8l6hQnfIP3NZO1Q"/>
-    <hyperlink ref="D157" r:id="rId378" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-palindromic-partitions-string/&amp;sa=D&amp;ust=1597322501545000&amp;usg=AFQjCNH-nIYjLvpl5FGMxBDgowh4yCQWRQ"/>
-    <hyperlink ref="D156" r:id="rId379" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/word-break-problem-using-backtracking/&amp;sa=D&amp;ust=1597322501544000&amp;usg=AFQjCNEWWXgVT2ZeS3DctYY8UlbInc4WGw"/>
-    <hyperlink ref="D155" r:id="rId380" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/remove-invalid-parentheses/&amp;sa=D&amp;ust=1597322501543000&amp;usg=AFQjCNF-3xb58ZvrIyLltzdnBEGPd2uhvQ"/>
-    <hyperlink ref="D154" r:id="rId381" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/backtracking-set-7-suduku/&amp;sa=D&amp;ust=1597322501542000&amp;usg=AFQjCNECERokP98BnHUtcb8RjrhSMjCOjw"/>
-    <hyperlink ref="D153" r:id="rId382" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/backttracking-set-2-rat-in-a-maze/&amp;sa=D&amp;ust=1597322501541000&amp;usg=AFQjCNHH5BJwsXowWzETNL55UhUYiceiQw"/>
-    <hyperlink ref="D152" r:id="rId383" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/backtracking-set-1-the-knights-tour-problem/&amp;sa=D&amp;ust=1597322501540000&amp;usg=AFQjCNFcHYigBlJAso8AiQQdKbhqH4vT8A"/>
-    <hyperlink ref="D151" r:id="rId384" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/search-a-word-in-a-2d-grid-of-characters/&amp;sa=D&amp;ust=1597322501539000&amp;usg=AFQjCNGavPVj_FwlGPJNb7reoFv_dPs3ZQ"/>
-    <hyperlink ref="D150" r:id="rId385" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/a-boolean-matrix-question/&amp;sa=D&amp;ust=1597322501538000&amp;usg=AFQjCNFZ2jtDgXtmhe7zi9NHTo2zNE3HFA"/>
-    <hyperlink ref="D149" r:id="rId386" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/kth-smallest-element-in-a-row-wise-and-column-wise-sorted-2d-array-set-1/&amp;sa=D&amp;ust=1597322501537000&amp;usg=AFQjCNGZ_sLEclGcftyMmmwCMzl6YcqRDA"/>
-    <hyperlink ref="D148" r:id="rId387" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/inplace-rotate-square-matrix-by-90-degrees/&amp;sa=D&amp;ust=1597322501536000&amp;usg=AFQjCNEKaWJVp7FSn9PYGAIGLgXMDaZ6GQ"/>
-    <hyperlink ref="D147" r:id="rId388" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/shortest-path-in-a-binary-maze/&amp;sa=D&amp;ust=1597322501535000&amp;usg=AFQjCNHKlRHt9Tv76rv3xlGpIqn_Jga9og"/>
-    <hyperlink ref="D146" r:id="rId389" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-orientation-of-a-pattern-in-a-matrix/&amp;sa=D&amp;ust=1597322501534000&amp;usg=AFQjCNED65Cnas3D-T20HVOJPGXwRVxRYw"/>
-    <hyperlink ref="D145" r:id="rId390" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-a-specific-pair-in-matrix/&amp;sa=D&amp;ust=1597322501532000&amp;usg=AFQjCNH3qy_398fd9-oBWWg9HygSKWixeQ"/>
-    <hyperlink ref="D144" r:id="rId391" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/common-elements-in-all-rows-of-a-given-matrix/&amp;sa=D&amp;ust=1597322501531000&amp;usg=AFQjCNH70b3UmMq8UMqZy9lav3PlyOsGQw"/>
-    <hyperlink ref="D143" r:id="rId392" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-size-rectangle-binary-sub-matrix-1s/&amp;sa=D&amp;ust=1597322501530000&amp;usg=AFQjCNGibxg63BmN6iDxwaEpI-eAnDu0gQ"/>
-    <hyperlink ref="D142" r:id="rId393" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-common-element-rows-row-wise-sorted-matrix/&amp;sa=D&amp;ust=1597322501529000&amp;usg=AFQjCNGbJcTzjQjQxkB61xk2A0UM7y4MEA"/>
-    <hyperlink ref="D141" r:id="rId394" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/rotate-matrix-elements/&amp;sa=D&amp;ust=1597322501528000&amp;usg=AFQjCNGaf2U1LYX6Z5S-TSoTxHJFihZg7A"/>
-    <hyperlink ref="D140" r:id="rId395" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-matrix-o-x-find-largest-subsquare-surrounded-x/&amp;sa=D&amp;ust=1597322501526000&amp;usg=AFQjCNFEDlpvA4oLOcv8DH-OExcqZr1ovA"/>
-    <hyperlink ref="D139" r:id="rId396" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/validity-of-a-given-tic-tac-toe-board-configuration/%2B&amp;sa=D&amp;ust=1597322501525000&amp;usg=AFQjCNHlyAodgMiobsC28NENrIfyV1Sjsw"/>
-    <hyperlink ref="D138" r:id="rId397" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-matrix-o-x-replace-o-x-surrounded-x/&amp;sa=D&amp;ust=1597322501524000&amp;usg=AFQjCNEXfriXA4_QO8q0Yn_Yx3x_U2ecsg"/>
-    <hyperlink ref="D137" r:id="rId398" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-number-of-islands/&amp;sa=D&amp;ust=1597322501523000&amp;usg=AFQjCNG0ybT0nemfz7LrFZrLiOZoOb0H5A"/>
-    <hyperlink ref="D136" r:id="rId399" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/inplace-rotate-square-matrix-by-90-degrees/&amp;sa=D&amp;ust=1597322501522000&amp;usg=AFQjCNFu_L1ckHc8owKSnBV4GxGQVyjwWA"/>
-    <hyperlink ref="D135" r:id="rId400" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-elements-sorted-order-row-column-wise-sorted-matrix/&amp;sa=D&amp;ust=1597322501521000&amp;usg=AFQjCNEC2JLFXOs_G763eeyTVJk4CHfOkA"/>
-    <hyperlink ref="D134" r:id="rId401" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/create-a-matrix-with-alternating-rectangles-of-0-and-x/&amp;sa=D&amp;ust=1597322501520000&amp;usg=AFQjCNHd6zdqzyo_wKNFXBXPNH5CTtTepw"/>
-    <hyperlink ref="D133" r:id="rId402" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/zigzag-or-diagonal-traversal-of-matrix/&amp;sa=D&amp;ust=1597322501519000&amp;usg=AFQjCNE_vMR5-DiY4KFHMs6ETcJa4ilfKg"/>
-    <hyperlink ref="D132" r:id="rId403" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/searching-for-patterns-set-3-rabin-karp-algorithm/&amp;sa=D&amp;ust=1597322501518000&amp;usg=AFQjCNFFTiCvFQ54Tkw6Ogb0hXNOayBiaw"/>
-    <hyperlink ref="D131" r:id="rId404" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/recursively-print-all-sentences-that-can-be-formed-from-list-of-word-lists/&amp;sa=D&amp;ust=1597322501516000&amp;usg=AFQjCNF5Y2TA1q65vzOQtGq8MbXIrgFQIQ"/>
-    <hyperlink ref="D130" r:id="rId405" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-given-string-can-represented-substring-iterating-substring-n-times/&amp;sa=D&amp;ust=1597322501515000&amp;usg=AFQjCNHD1Q17jcQ8t4vUQE2Q864kabfrbg"/>
-    <hyperlink ref="D129" r:id="rId406" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/check-if-two-given-strings-are-isomorphic-to-each-other/&amp;sa=D&amp;ust=1597322501514000&amp;usg=AFQjCNHEJBdNG_7emHfpncBWxCDRMaBmsg"/>
-    <hyperlink ref="D128" r:id="rId407" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/repeated-subsequence-length-2/&amp;sa=D&amp;ust=1597322501513000&amp;usg=AFQjCNG-HGkXBzXaRrV1Q-IFfhekgi7HkQ"/>
-    <hyperlink ref="D127" r:id="rId408" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/transform-one-string-to-another-using-minimum-number-of-given-operation/&amp;sa=D&amp;ust=1597322501512000&amp;usg=AFQjCNE3mNGwuJWTwQqqsGMvNc63ZcW2vg"/>
-    <hyperlink ref="D126" r:id="rId409" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/searching-for-patterns-set-2-kmp-algorithm/&amp;sa=D&amp;ust=1597322501511000&amp;usg=AFQjCNHHhgdyAknl3mCgF-WSlnNuC_l2qQ"/>
-    <hyperlink ref="D125" r:id="rId410" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-concatenation-of-zig-zag-string-form-in-n-rows/&amp;sa=D&amp;ust=1597322501510000&amp;usg=AFQjCNFixnUbPR1di-FNhVh3ZzozMWPILg"/>
-    <hyperlink ref="D124" r:id="rId411" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-ways-break-string-bracket-form/&amp;sa=D&amp;ust=1597322501509000&amp;usg=AFQjCNF4bRqNlexVFCAVgTbDJAcudv5OXA"/>
-    <hyperlink ref="D123" r:id="rId412" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/&amp;sa=D&amp;ust=1597322501507000&amp;usg=AFQjCNFl8GCTOUD_zPlYZoi6G17DvHtmsg"/>
-    <hyperlink ref="D122" r:id="rId413" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/check-given-sentence-given-set-simple-grammer-rules/&amp;sa=D&amp;ust=1597322501506000&amp;usg=AFQjCNH3GrKfyiezk53Dh6o9JT5p1jEW1A"/>
-    <hyperlink ref="D121" r:id="rId414" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/function-to-find-number-of-customers-who-could-not-get-a-computer/&amp;sa=D&amp;ust=1597322501505000&amp;usg=AFQjCNFkeLSxjaYd5MO9u79bO9UCl0zTUA"/>
-    <hyperlink ref="D120" r:id="rId415" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-the-longest-substring-with-k-unique-characters-in-a-given-string/&amp;sa=D&amp;ust=1597322501504000&amp;usg=AFQjCNHavPoDE3PIpAXac2OWhIbfyIqyrQ"/>
-    <hyperlink ref="D119" r:id="rId416" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-excel-column-name-given-number/&amp;sa=D&amp;ust=1597322501503000&amp;usg=AFQjCNHoNICs5YHpPM9nPqJw8n4zn1m0iw"/>
-    <hyperlink ref="D118" r:id="rId417" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-sorted-dictionary-find-precedence-characters/&amp;sa=D&amp;ust=1597322501501000&amp;usg=AFQjCNGOsQn6N8CGK-NiGQkgXcvJmuLSjg"/>
-    <hyperlink ref="D117" r:id="rId418" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-number-ascending-order-contains-1-2-3-digits/&amp;sa=D&amp;ust=1597322501500000&amp;usg=AFQjCNEIbe1sCABvEgplG9xgh4_X0WzGSA"/>
-    <hyperlink ref="D116" r:id="rId419" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/lexicographic-rank-of-a-string/&amp;sa=D&amp;ust=1597322501499000&amp;usg=AFQjCNG6j1sBskrVg7iJhB2kX6MFJ7pONA"/>
-    <hyperlink ref="D115" r:id="rId420" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/wildcard-character-matching/&amp;sa=D&amp;ust=1597322501499000&amp;usg=AFQjCNFYxxdDg0woLQwMTwRJ1p3GKV2y2Q"/>
-    <hyperlink ref="D114" r:id="rId421" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/recursively-remove-adjacent-duplicates-given-string/&amp;sa=D&amp;ust=1597322501498000&amp;usg=AFQjCNEnYIV-STKFrbGAsaTvujG6NtqswA"/>
-    <hyperlink ref="D113" r:id="rId422" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/rearrange-a-string-so-that-all-same-characters-become-at-least-d-distance-away/&amp;sa=D&amp;ust=1597322501497000&amp;usg=AFQjCNEefeLWuV1RILnhU1OMWovNrrf6SQ"/>
-    <hyperlink ref="D112" r:id="rId423" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-a-string-find-its-first-non-repeating-character/&amp;sa=D&amp;ust=1597322501495000&amp;usg=AFQjCNHnb0lDHojNthpcDcTzM2m-5K7ORQ"/>
-    <hyperlink ref="D111" r:id="rId424" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-patterns-101-given-string/&amp;sa=D&amp;ust=1597322501494000&amp;usg=AFQjCNECb_GODlvFo_06r-S3s-xwQxLZNg"/>
-    <hyperlink ref="D110" r:id="rId425" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-distinct-subsequences/&amp;sa=D&amp;ust=1597322501493000&amp;usg=AFQjCNGg3S8KgNxK226EykilqMs-wpYL6w"/>
-    <hyperlink ref="D109" r:id="rId426" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-number-times-string-occurs-given-string/&amp;sa=D&amp;ust=1597322501492000&amp;usg=AFQjCNG_Yr4MVeJazKmjOBzd0uTRCESdBA"/>
-    <hyperlink ref="D108" r:id="rId427" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/number-subsequences-string-divisible-n/&amp;sa=D&amp;ust=1597322501491000&amp;usg=AFQjCNGr7Y4zURaFRPkgrLx39jys9FOjHg"/>
-    <hyperlink ref="D107" r:id="rId428" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/number-subsequences-form-ai-bj-ck/&amp;sa=D&amp;ust=1597322501490000&amp;usg=AFQjCNE5B8c9unE52Nk8bSC44xc1IMG3Dw"/>
-    <hyperlink ref="D106" r:id="rId429" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/search-a-word-in-a-2d-grid-of-characters/&amp;sa=D&amp;ust=1597322501489000&amp;usg=AFQjCNEr10IRHOuVk0Z78_qsSvN1OqmuVA"/>
-    <hyperlink ref="D105" r:id="rId430" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-largest-word-dictionary-deleting-characters-given-string/&amp;sa=D&amp;ust=1597322501488000&amp;usg=AFQjCNGXmWOFeX0ZWU2sWoKCFOt_en1iUQ"/>
-    <hyperlink ref="D104" r:id="rId431" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-two-strings-find-first-string-subsequence-second/&amp;sa=D&amp;ust=1597322501487000&amp;usg=AFQjCNGhLSEsZL2v_NXPqoNxVNyE3BnGhQ"/>
-    <hyperlink ref="D103" r:id="rId432" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-shortest-common-supersequence/&amp;sa=D&amp;ust=1597322501486000&amp;usg=AFQjCNF-At82Sn6xEywJmVVZbze8JwAFzA"/>
-    <hyperlink ref="D102" r:id="rId433" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-longest-common-sub-sequences-lexicographical-order/&amp;sa=D&amp;ust=1597322501485000&amp;usg=AFQjCNH1JYB6jceJz3r28SCmQ_Yqai8Whw"/>
-    <hyperlink ref="D101" r:id="rId434" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/binary-representation-next-greater-number-number-1s-0s/&amp;sa=D&amp;ust=1597322501483000&amp;usg=AFQjCNEBvruEiMIsJSeM_zngJKgABYBS5Q"/>
-    <hyperlink ref="D100" r:id="rId435" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-binary-strings-k-times-appearing-adjacent-two-set-bits/&amp;sa=D&amp;ust=1597322501482000&amp;usg=AFQjCNFAKo8YlNmPhcsX8T7yH41FRaszQA"/>
-    <hyperlink ref="D99" r:id="rId436" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/min-flips-of-continuous-characters-to-make-all-characters-same-in-a-string/&amp;sa=D&amp;ust=1597322501481000&amp;usg=AFQjCNHZv7NhVxEqaTTTWZfgXKVJULB5GA"/>
-    <hyperlink ref="D98" r:id="rId437" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-total-anagram-substrings/&amp;sa=D&amp;ust=1597322501480000&amp;usg=AFQjCNFg6gtzgcvqgjRhtYO3CHoDgy3bqA"/>
-    <hyperlink ref="D97" r:id="rId438" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-all-distinct-characters-of-a-string-in-order-3-methods/&amp;sa=D&amp;ust=1597322501478000&amp;usg=AFQjCNHMUT9NQ-ZyaNoHnFgg9-Ycwde0gA"/>
-    <hyperlink ref="D96" r:id="rId439" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-number-distinct-palindromic-sub-strings-given-string/&amp;sa=D&amp;ust=1597322501477000&amp;usg=AFQjCNFqO9UwOOD2ZKdhLy0gGpjMv_LItQ"/>
-    <hyperlink ref="D95" r:id="rId440" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-words-whose-th-letter-either-1-th-th-i1-th-letter-given-word/&amp;sa=D&amp;ust=1597322501476000&amp;usg=AFQjCNFyhNf63QYRFIkst8xAJ20uoxwZ7w"/>
-    <hyperlink ref="D94" r:id="rId441" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-kth-character-of-decrypted-string/&amp;sa=D&amp;ust=1597322501475000&amp;usg=AFQjCNEPO7zg_hMEU6B1A3CEJso1LzvPKg"/>
-    <hyperlink ref="D93" r:id="rId442" display="https://www.google.com/url?q=https://www.codechef.com/JAN18/problems/STRMRG&amp;sa=D&amp;ust=1597322501474000&amp;usg=AFQjCNEDKzUq1GiFezm3pY0x6RVp33rAKw"/>
-    <hyperlink ref="D92" r:id="rId443" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/longest-non-palindromic-substring/&amp;sa=D&amp;ust=1597322501473000&amp;usg=AFQjCNFPfMH-CFspc_ideEp0Bm9sGvdQeA"/>
-    <hyperlink ref="D91" r:id="rId444" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/lexicographically-first-palindromic-string/&amp;sa=D&amp;ust=1597322501472000&amp;usg=AFQjCNHlvtdh1FKoLELixycYM7twO1hgJg"/>
-    <hyperlink ref="D90" r:id="rId445" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/make-largest-palindrome-changing-k-digits/&amp;sa=D&amp;ust=1597322501472000&amp;usg=AFQjCNGWfK4rj8QrjSr8sDRGm7ROL5jDMw"/>
-    <hyperlink ref="D89" r:id="rId446" display="https://www.google.com/url?q=https://www.codechef.com/FEB18/problems/PERMPAL&amp;sa=D&amp;ust=1597322501470000&amp;usg=AFQjCNHUnR1nGfULHHfRnlyd3lr0IHtZ-g"/>
-    <hyperlink ref="D88" r:id="rId447" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-the-smallest-window-in-a-string-containing-all-characters-of-another-string/&amp;sa=D&amp;ust=1597322501470000&amp;usg=AFQjCNFzFpKKMtvBtlxcrXRq1lwgNf4CKg"/>
-    <hyperlink ref="D87" r:id="rId448" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/longest-palindromic-substring-set-2/&amp;sa=D&amp;ust=1597322501469000&amp;usg=AFQjCNGl8-uC4r1QPyW1muwNVVnKl8-qSw"/>
-    <hyperlink ref="D86" r:id="rId449" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/check-binary-representations-two-numbers-anagram/&amp;sa=D&amp;ust=1597322501468000&amp;usg=AFQjCNHvjlEFwWRKqbiLMi-vC4-BhwCUcg"/>
-    <hyperlink ref="D85" r:id="rId450" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/check-two-strings-k-anagrams-not/&amp;sa=D&amp;ust=1597322501467000&amp;usg=AFQjCNHATZbj_kNPSz3plWIC6lszR5JHjw"/>
-    <hyperlink ref="D84" r:id="rId451" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/anagram-substring-search-search-permutations/&amp;sa=D&amp;ust=1597322501466000&amp;usg=AFQjCNFndDp42bLJvCW7JnwB5laCHmQAMQ"/>
-    <hyperlink ref="D83" r:id="rId452" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-a-sequence-of-words-print-all-anagrams-together/&amp;sa=D&amp;ust=1597322501464000&amp;usg=AFQjCNHuI4ybDvugR3Zi73HeZs6UIb4yMQ"/>
-    <hyperlink ref="D82" r:id="rId453" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-ways-increase-lcs-length-two-strings-one/&amp;sa=D&amp;ust=1597322501463000&amp;usg=AFQjCNHPygPSefUftGoi9UgIw7WhK7qyuA"/>
-    <hyperlink ref="D81" r:id="rId454" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/smallest-window-contains-characters-string/&amp;sa=D&amp;ust=1597322501462000&amp;usg=AFQjCNHhvtlvWDGrQ2zet_jBxnQu_NRFlw"/>
-    <hyperlink ref="D80" r:id="rId455" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/generate-all-binary-strings-from-given-pattern/&amp;sa=D&amp;ust=1597322501461000&amp;usg=AFQjCNFbltVyYvEDZdL6477T0Tusgov0zw"/>
-    <hyperlink ref="D79" r:id="rId456" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-words-together-set-characters/&amp;sa=D&amp;ust=1597322501460000&amp;usg=AFQjCNH-ANbpl_tieOcsODbEE6Jlq3Xb5w"/>
-    <hyperlink ref="D78" r:id="rId457" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-number-swaps-required-sort-array/&amp;sa=D&amp;ust=1597322501459000&amp;usg=AFQjCNHW3FlniK8XNGITeJQ-8bsRaXNJTw"/>
-    <hyperlink ref="D77" r:id="rId458" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-pair-with-greatest-product-in-array/&amp;sa=D&amp;ust=1597322501458000&amp;usg=AFQjCNGCKIXH19SkmfuTqjhgZ2Pe1hze4A"/>
-    <hyperlink ref="D76" r:id="rId459" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/permute-two-arrays-sum-every-pair-greater-equal-k/&amp;sa=D&amp;ust=1597322501457000&amp;usg=AFQjCNGdXylBIaEkfVqgUmtvr8y1Gt7-yA"/>
-    <hyperlink ref="D75" r:id="rId460" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-largest-multiple-3-array-digits-set-2-time-o1-space/&amp;sa=D&amp;ust=1597322501456000&amp;usg=AFQjCNGrwgJSSWvHsFQUov7DZjVr5cnIjw"/>
-    <hyperlink ref="D74" r:id="rId461" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-swaps-to-make-two-array-identical/&amp;sa=D&amp;ust=1597322501454000&amp;usg=AFQjCNESUuUKpwi4DI-WWuViVz55spyvYA"/>
-    <hyperlink ref="D73" r:id="rId462" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/sort-array-according-count-set-bits/&amp;sa=D&amp;ust=1597322501447000&amp;usg=AFQjCNHExjAvvxbdWJQ9wUqMvzgZRKjM_A"/>
-    <hyperlink ref="D72" r:id="rId463" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/insert-in-sorted-and-non-overlapping-interval-array/&amp;sa=D&amp;ust=1597322501446000&amp;usg=AFQjCNEFqLKTA9CYn4BDxtGIaWOkiUEb8A"/>
-    <hyperlink ref="G71" r:id="rId464" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/duplicates-array-using-o1-extra-space-set-2/&amp;sa=D&amp;ust=1597322501445000&amp;usg=AFQjCNHRyvCBJxGTrenbgdN4CwpmuUXcHQ"/>
-    <hyperlink ref="D71" r:id="rId465" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-duplicates-in-on-time-and-constant-extra-space/&amp;sa=D&amp;ust=1597322501445000&amp;usg=AFQjCNFueSP9GF0hgAtqSvFaI-206U7biA"/>
-    <hyperlink ref="D70" r:id="rId466" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-number-pairs-xy-yx/&amp;sa=D&amp;ust=1597322501444000&amp;usg=AFQjCNFvJHIiv_yZ0sunNEbJGADq3Jj5ug"/>
-    <hyperlink ref="D69" r:id="rId467" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/a-product-array-puzzle/&amp;sa=D&amp;ust=1597322501443000&amp;usg=AFQjCNHyTbkwpmc4wBXlIuEl_FtwGqzDWA"/>
-    <hyperlink ref="D68" r:id="rId468" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/nearly-sorted-algorithm/&amp;sa=D&amp;ust=1597322501440000&amp;usg=AFQjCNEvGSD09Ii53ZhoMZo7hqtVMQBjuQ"/>
-    <hyperlink ref="D67" r:id="rId469" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-all-subarrays-with-0-sum/&amp;sa=D&amp;ust=1597322501436000&amp;usg=AFQjCNETLkL_Yt-fTWm2qLYyQhnWMH_JoA"/>
-    <hyperlink ref="D66" r:id="rId470" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/check-reversing-sub-array-make-array-sorted/&amp;sa=D&amp;ust=1597322501433000&amp;usg=AFQjCNFFFt2F6XIOlIzlCF4BsSRLvO4xeA"/>
-    <hyperlink ref="D65" r:id="rId471" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/make-array-elements-equal-minimum-cost/&amp;sa=D&amp;ust=1597322501431000&amp;usg=AFQjCNHaN8_9OYL30BZvnwnlKKeWNCdXog"/>
-    <hyperlink ref="D64" r:id="rId472" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/median-of-stream-of-integers-running-integers/&amp;sa=D&amp;ust=1597322501430000&amp;usg=AFQjCNFlcbgTl6MdmLShBvT-x4rsImSpRw"/>
-    <hyperlink ref="D63" r:id="rId473" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/how-to-efficiently-sort-a-big-list-dates-in-20s/&amp;sa=D&amp;ust=1597322501429000&amp;usg=AFQjCNFPys_rfx3LEkX8jYuAyOQiNAqM9w"/>
-    <hyperlink ref="D62" r:id="rId474" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/radix-sort/&amp;sa=D&amp;ust=1597322501428000&amp;usg=AFQjCNHUR2cOYx3AGgIoVqCYWHBLA1wjWQ"/>
-    <hyperlink ref="D61" r:id="rId475" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/counting-sort/&amp;sa=D&amp;ust=1597322501427000&amp;usg=AFQjCNGQdisOmMhDOTyj1_tO0XePBHkwcQ"/>
-    <hyperlink ref="D60" r:id="rId476" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/3-way-quicksort-dutch-national-flag/&amp;sa=D&amp;ust=1597322501426000&amp;usg=AFQjCNFqt-FWpOXRZn3D8NZIsRgk_uCeHw"/>
-    <hyperlink ref="D59" r:id="rId477" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/merge-two-sorted-arrays-o1-extra-space/&amp;sa=D&amp;ust=1597322501426000&amp;usg=AFQjCNGOPo9W57btOJRI4Krlgm4xrLuHrQ"/>
-    <hyperlink ref="D58" r:id="rId478" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-triplets-with-sum-smaller-that-a-given-value/&amp;sa=D&amp;ust=1597322501425000&amp;usg=AFQjCNG3Sxlm3ybRXdKfR1XFZsicN1wH0A"/>
-    <hyperlink ref="D57" r:id="rId479" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-common-elements-three-sorted-arrays/&amp;sa=D&amp;ust=1597322501424000&amp;usg=AFQjCNGnH_uLQ336ZQVLb2JGDwyhJXFpHQ"/>
-    <hyperlink ref="D56" r:id="rId480" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-sum-such-that-no-two-elements-are-adjacent/&amp;sa=D&amp;ust=1597322501423000&amp;usg=AFQjCNEhOHVKcXTom1evjugUjQva0CO-rQ"/>
-    <hyperlink ref="D55" r:id="rId481" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/median-of-two-sorted-arrays-of-different-sizes/&amp;sa=D&amp;ust=1597322501421000&amp;usg=AFQjCNH6sA9tXprO6dO39Vokx2sBSqUrGA"/>
-    <hyperlink ref="D54" r:id="rId482" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-four-elements-that-sum-to-a-given-value-set-2/&amp;sa=D&amp;ust=1597322501420000&amp;usg=AFQjCNGdWhO4cUoDrndyL_ysUFg2yNGxxA"/>
-    <hyperlink ref="D53" r:id="rId483" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-a-pair-with-the-given-difference/&amp;sa=D&amp;ust=1597322501420000&amp;usg=AFQjCNHV-qUkSYIWXdDaKOdPEjADN9HUbQ"/>
-    <hyperlink ref="D52" r:id="rId484" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/ceiling-in-a-sorted-array/&amp;sa=D&amp;ust=1597322501419000&amp;usg=AFQjCNEpFXtXQk1DLlhXihU-n4voa1pffg"/>
-    <hyperlink ref="D51" r:id="rId485" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-a-repeating-and-a-missing-number/&amp;sa=D&amp;ust=1597322501418000&amp;usg=AFQjCNF3O0_diOdIuvb6XiGF57fiHR5Gsg"/>
-    <hyperlink ref="D50" r:id="rId486" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/searching-array-adjacent-differ-k/&amp;sa=D&amp;ust=1597322501417000&amp;usg=AFQjCNEMmj0wu45gOqgd1LczZC2QUzxiDA"/>
-    <hyperlink ref="D49" r:id="rId487" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/majority-element/&amp;sa=D&amp;ust=1597322501416000&amp;usg=AFQjCNGNAjBzxLvLaoZJB_0ZOPjW7dMrYg"/>
-    <hyperlink ref="D48" r:id="rId488" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/mos-algorithm-query-square-root-decomposition-set-1-introduction/&amp;sa=D&amp;ust=1597322501414000&amp;usg=AFQjCNHil8CKjpYoCOpRkUd1BMBkQMOxbQ"/>
-    <hyperlink ref="D47" r:id="rId489" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/space-optimization-using-bit-manipulations/&amp;sa=D&amp;ust=1597322501414000&amp;usg=AFQjCNEkLHRjJ6Gpy8hOUaJcNUxwa6Xi8A"/>
-    <hyperlink ref="D46" r:id="rId490" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-an-array-of-numbers-arrange-the-numbers-to-form-the-biggest-number/&amp;sa=D&amp;ust=1597322501413000&amp;usg=AFQjCNG3WoYvjGs6JIJCpHEC9doFUySGdw"/>
-    <hyperlink ref="D45" r:id="rId491" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/rearrange-array-maximum-minimum-form-set-2-o1-extra-space/&amp;sa=D&amp;ust=1597322501413000&amp;usg=AFQjCNGu6nU0PIWAo4ALaUatqRZ5yYRZdA"/>
-    <hyperlink ref="D44" r:id="rId492" display="https://www.google.com/url?q=https://www.codechef.com/JAN18/problems/MAXSC/&amp;sa=D&amp;ust=1597322501412000&amp;usg=AFQjCNHrw8Xmv1P_TP4KXChN_8GcMDNSjA"/>
-    <hyperlink ref="D43" r:id="rId493" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/reorder-a-array-according-to-given-indexes/&amp;sa=D&amp;ust=1597322501412000&amp;usg=AFQjCNGmrs381624rTfnhShto6usoaxeuA"/>
-    <hyperlink ref="D42" r:id="rId494" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-minimum-number-of-merge-operations-to-make-an-array-palindrome/&amp;sa=D&amp;ust=1597322501411000&amp;usg=AFQjCNGIrfuwHt-tSkR2WrvV9777KZXCqw"/>
-    <hyperlink ref="D41" r:id="rId495" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/longest-subarray-sum-divisible-k/&amp;sa=D&amp;ust=1597322501411000&amp;usg=AFQjCNEHrc7gBt1yG9v0yEfnV1YJ6-Csag"/>
-    <hyperlink ref="D40" r:id="rId496" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-all-possible-combinations-of-r-elements-in-a-given-array-of-size-n/&amp;sa=D&amp;ust=1597322501410000&amp;usg=AFQjCNE6mh2VRFyCdatQL82ozoYh06NeEA"/>
-    <hyperlink ref="D39" r:id="rId497" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/number-subarrays-maximum-value-given-range/&amp;sa=D&amp;ust=1597322501410000&amp;usg=AFQjCNGp54fgpixKn45XsjWlVxyWh9LqFg"/>
-    <hyperlink ref="D38" r:id="rId498" display="https://www.google.com/url?q=https://leetcode.com/problems/maximum-sum-of-3-non-overlapping-subarrays/description/&amp;sa=D&amp;ust=1597322501410000&amp;usg=AFQjCNF-xeFoBVfzNAdag5LczxNqS3lHig"/>
-    <hyperlink ref="D37" r:id="rId499" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-an-array-arr-find-the-maximum-j-i-such-that-arrj-arri/&amp;sa=D&amp;ust=1597322501409000&amp;usg=AFQjCNGJ84TYH5IFTK72XTprQK4GfbeC1A"/>
-    <hyperlink ref="D36" r:id="rId500" display="https://www.google.com/url?q=https://leetcode.com/problems/next-permutation/description/&amp;sa=D&amp;ust=1597322501409000&amp;usg=AFQjCNEJQXPvKm03pO31h2BsyJpEIQYwBg"/>
-    <hyperlink ref="D35" r:id="rId501" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/generate-all-possible-sorted-arrays-from-alternate-elements-of-two-given-arrays/&amp;sa=D&amp;ust=1597322501408000&amp;usg=AFQjCNEavFn9KscpJfqQzuz25A65lVLjIg"/>
-    <hyperlink ref="D34" r:id="rId502" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-smallest-value-represented-sum-subset-given-array/&amp;sa=D&amp;ust=1597322501408000&amp;usg=AFQjCNHKt9f1ZdJnY4huVR3sKCr0uhTt9w"/>
-    <hyperlink ref="D33" r:id="rId503" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/form-minimum-number-from-given-sequence/&amp;sa=D&amp;ust=1597322501407000&amp;usg=AFQjCNGyLaLXvrCg7naJ2hI8V5HnxEtvIw"/>
-    <hyperlink ref="D32" r:id="rId504" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/largest-sum-subarray-least-k-numbers/&amp;sa=D&amp;ust=1597322501407000&amp;usg=AFQjCNF2w8CXI6YSRtFSLLzKALo-1VuLGg"/>
-    <hyperlink ref="D31" r:id="rId505" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-swaps-required-bring-elements-less-equal-k-together/&amp;sa=D&amp;ust=1597322501406000&amp;usg=AFQjCNFI4qUdZvJce37tCphWMqeXdDk1kA"/>
-    <hyperlink ref="G30" r:id="rId506" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/move-zeroes-end-array-set-2-using-single-traversal/&amp;sa=D&amp;ust=1597322501406000&amp;usg=AFQjCNGNy-5262iJT0yt-t7YALzlPemOUQ"/>
-    <hyperlink ref="D30" r:id="rId507" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/move-zeroes-end-array/&amp;sa=D&amp;ust=1597322501405000&amp;usg=AFQjCNHFazz-Vtj0-1M59ZROImbqnizDgg"/>
-    <hyperlink ref="D29" r:id="rId508" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimize-the-maximum-difference-between-the-heights/&amp;sa=D&amp;ust=1597322501405000&amp;usg=AFQjCNEmauOxS1ULSz-x8M_bABDzQF5Paw"/>
-    <hyperlink ref="D28" r:id="rId509" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-difference-between-two-elements/&amp;sa=D&amp;ust=1597322501404000&amp;usg=AFQjCNGIbax43is6NCq4pGbBEO8z0GGLTA"/>
-    <hyperlink ref="D27" r:id="rId510" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-profit-by-buying-and-selling-a-share-at-most-k-times/&amp;sa=D&amp;ust=1597322501404000&amp;usg=AFQjCNHc9tyyokf3x36RcqaV7VFTN5_BTQ"/>
-    <hyperlink ref="D26" r:id="rId511" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-profit-by-buying-and-selling-a-share-at-most-twice/&amp;sa=D&amp;ust=1597322501403000&amp;usg=AFQjCNGpYwpUy__WrHutMYCbi4rEqg5dnw"/>
-    <hyperlink ref="D25" r:id="rId512" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/merging-intervals/&amp;sa=D&amp;ust=1597322501403000&amp;usg=AFQjCNEmBRPVBlbMVD7fMY4kXwQRMIdtdw"/>
-    <hyperlink ref="D24" r:id="rId513" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/sort-an-array-of-0s-1s-and-2s/&amp;sa=D&amp;ust=1597322501402000&amp;usg=AFQjCNGXl4FU3iMuMyeWgSeBPIwaPgSzWg"/>
-    <hyperlink ref="D23" r:id="rId514" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/segregate-0s-and-1s-in-an-array-by-traversing-array-once/&amp;sa=D&amp;ust=1597322501402000&amp;usg=AFQjCNH905A2jBi7M-gJUAhm7zs5WnauZg"/>
-    <hyperlink ref="D22" r:id="rId515" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/counting-inversions/&amp;sa=D&amp;ust=1597322501401000&amp;usg=AFQjCNG-8wo0rgwnof4dhCuCiRgeQz15bg"/>
-    <hyperlink ref="D21" r:id="rId516" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-product-subarray/&amp;sa=D&amp;ust=1597322501401000&amp;usg=AFQjCNFyqwPhtaIr8pmaOllcoDm4f-V25Q"/>
-    <hyperlink ref="D20" r:id="rId517" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/largest-subarray-with-equal-number-of-0s-and-1s/&amp;sa=D&amp;ust=1597322501400000&amp;usg=AFQjCNFnRcBQ-yC8sYegRDimLivf00iusg"/>
-    <hyperlink ref="D19" r:id="rId518" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-length-bitonic-subarray/&amp;sa=D&amp;ust=1597322501400000&amp;usg=AFQjCNHwgnjU8gpDWtYZ442xpTmB4gZUNg"/>
-    <hyperlink ref="D18" r:id="rId519" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/three-way-partitioning-of-an-array-around-a-given-range/&amp;sa=D&amp;ust=1597322501399000&amp;usg=AFQjCNFkHvfjvUICRPy7OKobxLssajfPDQ"/>
-    <hyperlink ref="D17" r:id="rId520" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/rearrange-positive-and-negative-numbers-publish/&amp;sa=D&amp;ust=1597322501399000&amp;usg=AFQjCNHwwzt0CUt9YAGGz41K7UJN5HFJUQ"/>
-    <hyperlink ref="D16" r:id="rId521" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-sum-iarri-among-rotations-given-array/&amp;sa=D&amp;ust=1597322501398000&amp;usg=AFQjCNFSIxhESNY5-vlD6T2hoFBZwr_oRg"/>
-    <hyperlink ref="D15" r:id="rId522" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-a-sorted-and-rotated-array-find-if-there-is-a-pair-with-a-given-sum/&amp;sa=D&amp;ust=1597322501398000&amp;usg=AFQjCNE3Gue9_LIZ94gmcLEp2vLFBH35xA"/>
-    <hyperlink ref="D14" r:id="rId523" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/search-an-element-in-a-sorted-and-pivoted-array/&amp;sa=D&amp;ust=1597322501398000&amp;usg=AFQjCNELQbdhg4CIUIkrUSl5_5GyW3lx_w"/>
-    <hyperlink ref="D13" r:id="rId524" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-k-pairs-smallest-sums-two-arrays/&amp;sa=D&amp;ust=1597322501397000&amp;usg=AFQjCNEAysKdsHCDHRFW3SZ1hkPifuoqgQ"/>
-    <hyperlink ref="D12" r:id="rId525" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/inplace-rotate-square-matrix-by-90-degrees/&amp;sa=D&amp;ust=1597322501397000&amp;usg=AFQjCNFKw2O3nqDBnYsaG2lw0OrNbNpHJg"/>
-    <hyperlink ref="D11" r:id="rId526" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/stock-buy-sell/&amp;sa=D&amp;ust=1597322501396000&amp;usg=AFQjCNFdHUqmx80e84jl7qIK5QUdYoTVnQ"/>
-    <hyperlink ref="D10" r:id="rId527" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/trapping-rain-water/&amp;sa=D&amp;ust=1597322501396000&amp;usg=AFQjCNEzlCBWkzglGEVbQdWSgbOuJAdYiw"/>
-    <hyperlink ref="D9" r:id="rId528" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/&amp;sa=D&amp;ust=1597322501395000&amp;usg=AFQjCNHxWrorZ2cPhEBjP55Nbn7VzXr5cQ"/>
-    <hyperlink ref="D8" r:id="rId529" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/chocolate-distribution-problem/&amp;sa=D&amp;ust=1597322501395000&amp;usg=AFQjCNETh6Z8PnMZ3IyHRVJCzUygb0PI1w"/>
-    <hyperlink ref="D7" r:id="rId530" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-a-pair-with-the-given-difference/&amp;sa=D&amp;ust=1597322501314000&amp;usg=AFQjCNEEmi1GaP6X58jRd5gZQyDE_5NJaw"/>
-    <hyperlink ref="D6" r:id="rId531" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/convert-array-into-zig-zag-fashion/&amp;sa=D&amp;ust=1597322501314000&amp;usg=AFQjCNFepPmjR-FXz9874L84G5dr_hs56g"/>
-    <hyperlink ref="D5" r:id="rId532" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-14-maximum-sum-increasing-subsequence/&amp;sa=D&amp;ust=1597322501313000&amp;usg=AFQjCNEDXGixpuKJG_j-GjdoHryU71DP4w"/>
-    <hyperlink ref="D4" r:id="rId533" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/equilibrium-index-of-an-array/&amp;sa=D&amp;ust=1597322501313000&amp;usg=AFQjCNHtz7NOmLbAfKmVWLefSSO03xJjsQ"/>
-    <hyperlink ref="G3" r:id="rId534" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-length-subarray-sum-greater-given-value/&amp;sa=D&amp;ust=1597322501312000&amp;usg=AFQjCNEh6noa4BIAsY9CdZ3r7WBxES4IOw"/>
-    <hyperlink ref="D3" r:id="rId535" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-subarray-with-given-sum/&amp;sa=D&amp;ust=1597322501312000&amp;usg=AFQjCNFG949QPcFpaFeumKG9kcH9IHhJtw"/>
-    <hyperlink ref="D2" r:id="rId536" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-contiguous-circular-sum/&amp;sa=D&amp;ust=1597322501312000&amp;usg=AFQjCNGrW_XvUTpyHBj6wMIWVfiJgL4pMw"/>
-    <hyperlink ref="D1" r:id="rId537" display="https://www.google.com/url?q=https://www.codechef.com/JAN18/problems/KCON/&amp;sa=D&amp;ust=1597322501311000&amp;usg=AFQjCNFy5fxqK_MpO9FAn-vQj6G6e3Escg"/>
+    <hyperlink ref="D266" r:id="rId266" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/queue-based-approach-for-first-non-repeating-character-in-a-stream/&amp;sa=D&amp;ust=1597322501616000&amp;usg=AFQjCNHhrIqvwAj6xQ2EoTvX0EHbyV-g5g"/>
+    <hyperlink ref="D265" r:id="rId267" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/stack-set-4-evaluation-postfix-expression/&amp;sa=D&amp;ust=1597322501614000&amp;usg=AFQjCNHwpl7nbc8kfEhEwbjlbtaPUeC-0w"/>
+    <hyperlink ref="D264" r:id="rId268" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/sort-a-stack-using-recursion/&amp;sa=D&amp;ust=1597322501613000&amp;usg=AFQjCNHLmRh9mBdTGa2d6ffL0ONbyCL9AQ"/>
+    <hyperlink ref="D263" r:id="rId269" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-natural-numbers-whose-permutation-greater-number/&amp;sa=D&amp;ust=1597322501611000&amp;usg=AFQjCNEmjn8lL7yqilssXHB7Ko7wEeDyZg"/>
+    <hyperlink ref="D262" r:id="rId270" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/stack-permutations-check-if-an-array-is-stack-permutation-of-other/&amp;sa=D&amp;ust=1597322501610000&amp;usg=AFQjCNEvZK7sFrB824Pn-GoQCj0mar0lmw"/>
+    <hyperlink ref="D261" r:id="rId271" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/sum-minimum-maximum-elements-subarrays-size-k/&amp;sa=D&amp;ust=1597322501609000&amp;usg=AFQjCNFo6rM1hXaSaVDcW5dsr-pqnZ5iRg"/>
+    <hyperlink ref="D260" r:id="rId272" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-time-required-so-that-all-oranges-become-rotten/&amp;sa=D&amp;ust=1597322501608000&amp;usg=AFQjCNEfg7jZ0m2zCxKpMRPXT5Qz_MTG0w"/>
+    <hyperlink ref="D259" r:id="rId273" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-a-tour-that-visits-all-stations/&amp;sa=D&amp;ust=1597322501607000&amp;usg=AFQjCNEwhBaU8dxFgzQlBrjytw1HlVRe2g"/>
+    <hyperlink ref="D258" r:id="rId274" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/efficiently-implement-k-queues-single-array/&amp;sa=D&amp;ust=1597322501606000&amp;usg=AFQjCNE9noBIhJ7R-DLDnCSLCLM6aPyQCg"/>
+    <hyperlink ref="D257" r:id="rId275" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/lru-cache-implementation/&amp;sa=D&amp;ust=1597322501605000&amp;usg=AFQjCNEzko3KeDAxQYm1oGO8G84haQe3YA"/>
+    <hyperlink ref="D256" r:id="rId276" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-expression-duplicate-parenthesis-not/&amp;sa=D&amp;ust=1597322501604000&amp;usg=AFQjCNEQZliMO0imTF0UCDkjbfRA5iRz2A"/>
+    <hyperlink ref="E255" r:id="rId277" display="https://www.google.com/url?q=https://leetcode.com/articles/longest-valid-parentheses/&amp;sa=D&amp;ust=1597322501602000&amp;usg=AFQjCNFLCoAPK5F9BFzsXiqKkmvjCHjDLQ"/>
+    <hyperlink ref="D255" r:id="rId278" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/&amp;sa=D&amp;ust=1597322501602000&amp;usg=AFQjCNH87fbJpbZ0U6z9rhWU0yVBbDD4Nw"/>
+    <hyperlink ref="D254" r:id="rId279" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-the-maximum-of-minimums-for-every-window-size-in-a-given-array/&amp;sa=D&amp;ust=1597322501601000&amp;usg=AFQjCNEL_AuQ_hFfSn9yp7JfEO9OK1sCPQ"/>
+    <hyperlink ref="D253" r:id="rId280" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/design-and-implement-special-stack-data-structure/&amp;sa=D&amp;ust=1597322501600000&amp;usg=AFQjCNFu8nMC3o78N3Y6aDj3Fx1nviMVTQ"/>
+    <hyperlink ref="D252" r:id="rId281" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/iterative-tower-of-hanoi/&amp;sa=D&amp;ust=1597322501599000&amp;usg=AFQjCNGBKeK2wS-mLCdyszvyzS-yclO3dg"/>
+    <hyperlink ref="D251" r:id="rId282" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/the-celebrity-problem/&amp;sa=D&amp;ust=1597322501598000&amp;usg=AFQjCNGWrlgKdl5CX4WPTHFCFzade2wHsw"/>
+    <hyperlink ref="D250" r:id="rId283" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/stack-set-2-infix-to-postfix/&amp;sa=D&amp;ust=1597322501597000&amp;usg=AFQjCNHi5EAtPn_lEOgzeUIKFQnpgNYdSg"/>
+    <hyperlink ref="D249" r:id="rId284" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/implement-stack-using-priority-queue-or-heap/&amp;sa=D&amp;ust=1597322501596000&amp;usg=AFQjCNEIV-WqllEGuu-f87eWfd7_RESCrA"/>
+    <hyperlink ref="D248" r:id="rId285" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/efficiently-implement-k-stacks-single-array/&amp;sa=D&amp;ust=1597322501595000&amp;usg=AFQjCNEZpJTAA0At342AXqHXlc2eMD2uuw"/>
+    <hyperlink ref="D247" r:id="rId286" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/design-a-stack-with-find-middle-operation/&amp;sa=D&amp;ust=1597322501594000&amp;usg=AFQjCNFAu3mxuKRplxaygOHlxBVbMcoAeg"/>
+    <hyperlink ref="D246" r:id="rId287" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/implement-two-stacks-in-an-array/&amp;sa=D&amp;ust=1597322501593000&amp;usg=AFQjCNEDmFi0tagufrF0yeDn9m9669QaWw"/>
+    <hyperlink ref="D245" r:id="rId288" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-maximum-values-expression/&amp;sa=D&amp;ust=1597322501593000&amp;usg=AFQjCNHy9dfqzTrpnaaXq9EB0CfJzBZ2zA"/>
+    <hyperlink ref="D244" r:id="rId289" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-sum-alternating-subsequence-sum/&amp;sa=D&amp;ust=1597322501593000&amp;usg=AFQjCNFvF3mPTuXznG_BLRfNb9w-dt8Qaw"/>
+    <hyperlink ref="D243" r:id="rId290" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/highway-billboard-problem/&amp;sa=D&amp;ust=1597322501592000&amp;usg=AFQjCNGWKUF1srMuu5Vwl3d9Vf4epRU2Bw"/>
+    <hyperlink ref="D242" r:id="rId291" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/temple-offerings/&amp;sa=D&amp;ust=1597322501592000&amp;usg=AFQjCNE7QcULVTJg_VEEceyGr4Gu-XpDpA"/>
+    <hyperlink ref="D241" r:id="rId292" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/shortest-uncommon-subsequence/&amp;sa=D&amp;ust=1597322501591000&amp;usg=AFQjCNG_JJu-dlgHFRq2RpPUC5pEqq0nTQ"/>
+    <hyperlink ref="D240" r:id="rId293" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-distinct-subsequences/&amp;sa=D&amp;ust=1597322501591000&amp;usg=AFQjCNGQC4E3TNeyVOeH3bzC47GF7jiWrQ"/>
+    <hyperlink ref="D239" r:id="rId294" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-sum-path-3-d-array/&amp;sa=D&amp;ust=1597322501590000&amp;usg=AFQjCNGKyMiNKRIpkZm5TADAkz1cDxYegA"/>
+    <hyperlink ref="D238" r:id="rId295" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-if-string-is-k-palindrome-or-not/&amp;sa=D&amp;ust=1597322501590000&amp;usg=AFQjCNGez6VTklaTAEyrIiVyYfa_K9lucQ"/>
+    <hyperlink ref="D237" r:id="rId296" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/longest-common-increasing-subsequence-lcs-lis/&amp;sa=D&amp;ust=1597322501589000&amp;usg=AFQjCNFy-9ddg1Em5nMIFjbCWNCYr9I-Ew"/>
+    <hyperlink ref="D236" r:id="rId297" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/longest-repeating-subsequence/&amp;sa=D&amp;ust=1597322501589000&amp;usg=AFQjCNHSENLZJoLZzcK6uN9SBTOK-uDjCg"/>
+    <hyperlink ref="D235" r:id="rId298" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/bitmasking-and-dynamic-programming-set-1-count-ways-to-assign-unique-cap-to-every-person/&amp;sa=D&amp;ust=1597322501589000&amp;usg=AFQjCNFD2I1GSkdz9mLpjOUK-UKbtjlH2Q"/>
+    <hyperlink ref="D234" r:id="rId299" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-possible-ways-to-construct-buildings/&amp;sa=D&amp;ust=1597322501588000&amp;usg=AFQjCNFWVigw89_E5iawXClWDj5lOyV1WQ"/>
+    <hyperlink ref="D233" r:id="rId300" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/longest-even-length-substring-sum-first-second-half/&amp;sa=D&amp;ust=1597322501588000&amp;usg=AFQjCNGlgCenqkC75MtrKEX5kTQlP3ZIMw"/>
+    <hyperlink ref="D232" r:id="rId301" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/vertex-cover-problem-set-2-dynamic-programming-solution-tree/&amp;sa=D&amp;ust=1597322501587000&amp;usg=AFQjCNFjUrYVYf8Zo1XRaz_4LLEUYYUuLw"/>
+    <hyperlink ref="D231" r:id="rId302" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/perfect-sum-problem-print-subsets-given-sum/&amp;sa=D&amp;ust=1597322501587000&amp;usg=AFQjCNHfUqd4_vDpeNTFcHrKRdDhSSAZzg"/>
+    <hyperlink ref="D230" r:id="rId303" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-possible-decodings-given-digit-sequence/&amp;sa=D&amp;ust=1597322501586000&amp;usg=AFQjCNHUtjt6yoAcFSwgTlGWSQ4nIWPLjg"/>
+    <hyperlink ref="D229" r:id="rId304" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-37-boolean-parenthesization-problem/&amp;sa=D&amp;ust=1597322501586000&amp;usg=AFQjCNFG4qwRybqQdfXHNCOH5r6ciUblnA"/>
+    <hyperlink ref="D228" r:id="rId305" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/&amp;sa=D&amp;ust=1597322501585000&amp;usg=AFQjCNHl-uKcU_pPd8fh8duMNv6k0n_uNQ"/>
+    <hyperlink ref="D227" r:id="rId306" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/unbounded-knapsack-repetition-items-allowed/&amp;sa=D&amp;ust=1597322501585000&amp;usg=AFQjCNG9JSBBnpGrPh42SXdYT-H-OxqKiQ"/>
+    <hyperlink ref="D226" r:id="rId307" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/number-subsequences-form-ai-bj-ck/&amp;sa=D&amp;ust=1597322501585000&amp;usg=AFQjCNEifaemm79zr45p8Lnauh_t46Ulcg"/>
+    <hyperlink ref="D225" r:id="rId308" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/remove-minimum-elements-either-side-2min-max/&amp;sa=D&amp;ust=1597322501584000&amp;usg=AFQjCNGQfXpIy6KT_YisfFSdeDDoesOx5g"/>
+    <hyperlink ref="D224" r:id="rId309" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-water-in-a-glass/&amp;sa=D&amp;ust=1597322501584000&amp;usg=AFQjCNFkpHiQHyJBl7YERaBtOVe-l0t_og"/>
+    <hyperlink ref="D223" r:id="rId310" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/largest-sum-subarray-least-k-numbers/&amp;sa=D&amp;ust=1597322501583000&amp;usg=AFQjCNGtagItsC3Tfz2FDtZ1R1A98Z9NDw"/>
+    <hyperlink ref="D222" r:id="rId311" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-18-word-wrap/&amp;sa=D&amp;ust=1597322501583000&amp;usg=AFQjCNEvqs9YQ7VhJhnZl5lhBEwzLZ-7TA"/>
+    <hyperlink ref="D221" r:id="rId312" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/two-water-jug-puzzle/&amp;sa=D&amp;ust=1597322501582000&amp;usg=AFQjCNEFsq99kqD08zEPZZbIZYRe4UZQnQ"/>
+    <hyperlink ref="D220" r:id="rId313" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/probability-knight-remain-chessboard/&amp;sa=D&amp;ust=1597322501582000&amp;usg=AFQjCNH6AqcL6eRzLWy_GR-cuP-nBLxBcg"/>
+    <hyperlink ref="D219" r:id="rId314" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/wildcard-pattern-matching/&amp;sa=D&amp;ust=1597322501581000&amp;usg=AFQjCNHYr95mDM66UTRtfRWGWcux4-PJ1w"/>
+    <hyperlink ref="D218" r:id="rId315" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/check-whether-a-given-string-is-an-interleaving-of-two-other-given-strings-set-2/&amp;sa=D&amp;ust=1597322501581000&amp;usg=AFQjCNGHRdjVEnRAU2rXtogaSme_kX-mOw"/>
+    <hyperlink ref="D217" r:id="rId316" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/painters-partition-problem/&amp;sa=D&amp;ust=1597322501579000&amp;usg=AFQjCNGfCEVcpF-rwb0Dns57ehi8JyCFMA"/>
+    <hyperlink ref="D216" r:id="rId317" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-number-binary-strings-without-consecutive-1s/&amp;sa=D&amp;ust=1597322501579000&amp;usg=AFQjCNGtdUp32jOKf4MxBRL8PosDAkDMbw"/>
+    <hyperlink ref="G215" r:id="rId318" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-number-of-ways-to-fill-a-n-x-4-grid-using-1-x-4-tiles/&amp;sa=D&amp;ust=1597322501578000&amp;usg=AFQjCNEWMuFJUvDTeh84us_6JZsvMk1g3A"/>
+    <hyperlink ref="D215" r:id="rId319" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-number-ways-tile-floor-size-n-x-m-using-1-x-m-size-tiles/&amp;sa=D&amp;ust=1597322501578000&amp;usg=AFQjCNG_7xf9FDugBiz4IRx_dHrzpt3B4w"/>
+    <hyperlink ref="D214" r:id="rId320" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-number-of-solutions-of-a-linear-equation-of-n-variables/&amp;sa=D&amp;ust=1597322501578000&amp;usg=AFQjCNHiiK6uPSNLnWQH1LKbdjTg9rAMZw"/>
+    <hyperlink ref="D213" r:id="rId321" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/mobile-numeric-keypad-problem/&amp;sa=D&amp;ust=1597322501577000&amp;usg=AFQjCNERTbAj3F1izV4s8bL8UDCw21Miew"/>
+    <hyperlink ref="D212" r:id="rId322" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-32-word-break-problem/&amp;sa=D&amp;ust=1597322501577000&amp;usg=AFQjCNFymFcUzmlzD5FUsNbeYjDMperXmA"/>
+    <hyperlink ref="D211" r:id="rId323" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-31-optimal-strategy-for-a-game/&amp;sa=D&amp;ust=1597322501577000&amp;usg=AFQjCNEpk_NSQEkvO8hWb_QUZxwN6Eiy6A"/>
+    <hyperlink ref="D210" r:id="rId324" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-36-cut-a-rope-to-maximize-product/&amp;sa=D&amp;ust=1597322501576000&amp;usg=AFQjCNHZU5vfjmRTHgpAn935psoGTkLLFw"/>
+    <hyperlink ref="D209" r:id="rId325" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-28-minimum-insertions-to-form-a-palindrome/&amp;sa=D&amp;ust=1597322501576000&amp;usg=AFQjCNFqc4rA2UxRp-Bo07xLlN1JqaJg2Q"/>
+    <hyperlink ref="D208" r:id="rId326" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-24-optimal-binary-search-tree/&amp;sa=D&amp;ust=1597322501575000&amp;usg=AFQjCNFHmA8G6TCljt4Jm_euczAZFoDwUQ"/>
+    <hyperlink ref="D207" r:id="rId327" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-21-box-stacking-problem/&amp;sa=D&amp;ust=1597322501575000&amp;usg=AFQjCNE04bXwMJiryN1OdNp0U2nUOcshAw"/>
+    <hyperlink ref="D206" r:id="rId328" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-11-egg-dropping-puzzle/&amp;sa=D&amp;ust=1597322501574000&amp;usg=AFQjCNFqYqTY2YYx_E9egB8NytZx4St2ug"/>
+    <hyperlink ref="D205" r:id="rId329" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-12-longest-palindromic-subsequence/&amp;sa=D&amp;ust=1597322501574000&amp;usg=AFQjCNGq7Y_pU3p2KyZnE4qqrI52IwOXDg"/>
+    <hyperlink ref="D204" r:id="rId330" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-number-of-ways-to-partition-a-set-into-k-subsets/&amp;sa=D&amp;ust=1597322501574000&amp;usg=AFQjCNHOzDDjNOdt3AMFb234-LTZMdjLEg"/>
+    <hyperlink ref="D203" r:id="rId331" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-18-partition-problem/&amp;sa=D&amp;ust=1597322501573000&amp;usg=AFQjCNEsocEqLgBS7GtrEXVNVzWUyq9aeQ"/>
+    <hyperlink ref="D202" r:id="rId332" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-building-bridges/&amp;sa=D&amp;ust=1597322501573000&amp;usg=AFQjCNHqNophlMu7AW8z3ubRFASok2x_dw"/>
+    <hyperlink ref="D201" r:id="rId333" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/friends-pairing-problem/&amp;sa=D&amp;ust=1597322501572000&amp;usg=AFQjCNFiypsn8HZ81pTAOhXTWMeN3ApcdQ"/>
+    <hyperlink ref="D200" r:id="rId334" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/lcs-longest-common-subsequence-three-strings/&amp;sa=D&amp;ust=1597322501572000&amp;usg=AFQjCNFVseqwI_V5TtS8F2ot5u81OF4Eqw"/>
+    <hyperlink ref="D199" r:id="rId335" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-sum-bi-tonic-sub-sequence/&amp;sa=D&amp;ust=1597322501571000&amp;usg=AFQjCNEJ5amxG0Gm-Z6HIllc1KYQtwp3yQ"/>
+    <hyperlink ref="D198" r:id="rId336" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-15-longest-bitonic-subsequence/&amp;sa=D&amp;ust=1597322501571000&amp;usg=AFQjCNEdVlWMlJncBtyFTL8Jx__OH5UvqQ"/>
+    <hyperlink ref="D197" r:id="rId337" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-number-of-jumps-to-reach-end-of-a-given-array/&amp;sa=D&amp;ust=1597322501571000&amp;usg=AFQjCNG71fLWRCBPJq2fhFeUKfKyqbaPAA"/>
+    <hyperlink ref="D196" r:id="rId338" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-subset-sum-problem/&amp;sa=D&amp;ust=1597322501570000&amp;usg=AFQjCNHvpEsPrH8cM7ZIEYcUk49UcKtH6Q"/>
+    <hyperlink ref="D195" r:id="rId339" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-size-sub-matrix-with-all-1s-in-a-binary-matrix/&amp;sa=D&amp;ust=1597322501570000&amp;usg=AFQjCNFwt1w-Kq14KeRFT8elJSMjzWzIsg"/>
+    <hyperlink ref="D194" r:id="rId340" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/super-ugly-number-number-whose-prime-factors-given-set/&amp;sa=D&amp;ust=1597322501569000&amp;usg=AFQjCNF6Lw7OG-h4wUlKcM5-u4yyyHtNpQ"/>
+    <hyperlink ref="D193" r:id="rId341" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/ugly-numbers/&amp;sa=D&amp;ust=1597322501569000&amp;usg=AFQjCNF5il1OAjGIBTHucuG1EvE7-w_GUQ"/>
+    <hyperlink ref="D192" r:id="rId342" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-edges-reverse-make-path-source-destination/&amp;sa=D&amp;ust=1597322501568000&amp;usg=AFQjCNFdeE5lXRigN__Hf3VH0f3iH8yAPw"/>
+    <hyperlink ref="D191" r:id="rId343" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimize-cash-flow-among-given-set-friends-borrowed-money/&amp;sa=D&amp;ust=1597322501568000&amp;usg=AFQjCNHJG2p839GqeC57vgzy0u8_gYR_0A"/>
+    <hyperlink ref="D190" r:id="rId344" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-cost-cut-board-squares/&amp;sa=D&amp;ust=1597322501567000&amp;usg=AFQjCNEodxjNC8sdFT5-17FWtdwKK3TIbQ"/>
+    <hyperlink ref="D189" r:id="rId345" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximize-array-sun-after-k-negation-operations/&amp;sa=D&amp;ust=1597322501567000&amp;usg=AFQjCNHE8uoQbGBxnjNEdUT_WEGUVnFf2Q"/>
+    <hyperlink ref="D188" r:id="rId346" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-maximum-sum-possible-equal-sum-three-stacks/&amp;sa=D&amp;ust=1597322501567000&amp;usg=AFQjCNFUThI5bLPgp1RzRJU3JHfI_Qm97g"/>
+    <hyperlink ref="D187" r:id="rId347" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-cost-for-acquiring-all-coins-with-k-extra-coins-allowed-with-every-coin/&amp;sa=D&amp;ust=1597322501566000&amp;usg=AFQjCNHAIvhNkca-iOFqAl-KWJPdiiExSg"/>
+    <hyperlink ref="D186" r:id="rId348" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-maximum-height-pyramid-from-the-given-array-of-objects/&amp;sa=D&amp;ust=1597322501566000&amp;usg=AFQjCNH-LAD41_R1QULMSZr8NsODMyTBfg"/>
+    <hyperlink ref="D185" r:id="rId349" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/rearrange-characters-string-no-two-adjacent/&amp;sa=D&amp;ust=1597322501565000&amp;usg=AFQjCNHLr2hSmsuDJ9p3kRFRNvE6nm0Bbg"/>
+    <hyperlink ref="D184" r:id="rId350" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/lexicographically-smallest-array-k-consecutive-swaps/&amp;sa=D&amp;ust=1597322501565000&amp;usg=AFQjCNEF2GrBzy6fqOzVSF0AbBPe0B0ipw"/>
+    <hyperlink ref="D183" r:id="rId351" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/paper-cut-minimum-number-squares/&amp;sa=D&amp;ust=1597322501564000&amp;usg=AFQjCNENIj-vpwgmtACL_XUw10kCwRvahg"/>
+    <hyperlink ref="D182" r:id="rId352" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximize-sum-consecutive-differences-circular-array/&amp;sa=D&amp;ust=1597322501564000&amp;usg=AFQjCNGtovlNLZrtIa9MSjWBUsDwzs6TtQ"/>
+    <hyperlink ref="D181" r:id="rId353" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-sum-absolute-difference-pairs-two-arrays/&amp;sa=D&amp;ust=1597322501564000&amp;usg=AFQjCNHxBtgCZJwiPT8Cdwf6iuzQ0WvkhA"/>
+    <hyperlink ref="D180" r:id="rId354" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-smallest-number-with-given-number-of-digits-and-digit-sum/&amp;sa=D&amp;ust=1597322501563000&amp;usg=AFQjCNHdJA4oBDvGseMpXlCzlDWbWkqNag"/>
+    <hyperlink ref="D179" r:id="rId355" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-sum-two-numbers-formed-digits-array-2/&amp;sa=D&amp;ust=1597322501563000&amp;usg=AFQjCNGroN-IDbAdHSZ5d5PUzZuSPeDlgA"/>
+    <hyperlink ref="D178" r:id="rId356" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/job-sequencing-using-disjoint-set-union/&amp;sa=D&amp;ust=1597322501562000&amp;usg=AFQjCNGafm9kPyPcYrjP1iIN1XiJ4KkUYw"/>
+    <hyperlink ref="D177" r:id="rId357" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-minimum-time-to-finish-all-jobs-with-given-constraints/&amp;sa=D&amp;ust=1597322501561000&amp;usg=AFQjCNFsf3dDQeIb2aPE458Sgg-a_JpI7Q"/>
+    <hyperlink ref="D176" r:id="rId358" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-20-maximum-length-chain-of-pairs/&amp;sa=D&amp;ust=1597322501561000&amp;usg=AFQjCNGmJ6_4f6XCmyNle2PTF1-znA8ixA"/>
+    <hyperlink ref="D175" r:id="rId359" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/greedy-algorithm-to-find-minimum-number-of-coins/&amp;sa=D&amp;ust=1597322501560000&amp;usg=AFQjCNGwBEtaXfP18-vdBuVQmlSdXwNimg"/>
+    <hyperlink ref="D174" r:id="rId360" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/fractional-knapsack-problem/&amp;sa=D&amp;ust=1597322501559000&amp;usg=AFQjCNHXxR6pF2rvXlqQI6rlqmfLUGKRww"/>
+    <hyperlink ref="D173" r:id="rId361" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/greedy-algorithm-egyptian-fraction/&amp;sa=D&amp;ust=1597322501559000&amp;usg=AFQjCNH8KK2RZrP4G1KLq9g-z6kBDWyceQ"/>
+    <hyperlink ref="D172" r:id="rId362" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/job-sequencing-problem-set-1-greedy-algorithm/&amp;sa=D&amp;ust=1597322501559000&amp;usg=AFQjCNEXuodH2XDKh8bfVfg9tdaQs8po9Q"/>
+    <hyperlink ref="D171" r:id="rId363" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/greedy-algorithms-set-1-activity-selection-problem/&amp;sa=D&amp;ust=1597322501558000&amp;usg=AFQjCNGPtEQx772-0jkiUXPzQx3RYKxutw"/>
+    <hyperlink ref="D170" r:id="rId364" display="https://www.google.com/url?q=https://www.hackerrank.com/challenges/crossword-puzzle/problem&amp;sa=D&amp;ust=1597322501557000&amp;usg=AFQjCNEmWvymnC_8BQRMyqunDwjiY3mFWg"/>
+    <hyperlink ref="D169" r:id="rId365" display="https://www.google.com/url?q=https://www.hackerrank.com/challenges/arithmetic-expressions/problem&amp;sa=D&amp;ust=1597322501556000&amp;usg=AFQjCNFTgQoDEtEFtlO0asfhpmARvYOT9g"/>
+    <hyperlink ref="D168" r:id="rId366" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-paths-from-corner-cell-to-middle-cell-in-maze/&amp;sa=D&amp;ust=1597322501555000&amp;usg=AFQjCNH3NTs5RDI0I5tKcie7g4OFLk4Shg"/>
+    <hyperlink ref="D167" r:id="rId367" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-maximum-number-possible-by-doing-at-most-k-swaps/&amp;sa=D&amp;ust=1597322501554000&amp;usg=AFQjCNG8LNfkaPvc3lsiY-Pu6-cpcnHTIA"/>
+    <hyperlink ref="D166" r:id="rId368" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/tug-of-war/&amp;sa=D&amp;ust=1597322501553000&amp;usg=AFQjCNGK7g-yR4ure5OlgSYhjENDSMBcXg"/>
+    <hyperlink ref="D165" r:id="rId369" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/backtracking-set-7-hamiltonian-cycle/&amp;sa=D&amp;ust=1597322501552000&amp;usg=AFQjCNGZFZ4CGCW61cm4nAxYs3QI8Fu51g"/>
+    <hyperlink ref="D164" r:id="rId370" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-if-there-is-a-path-of-more-than-k-length-from-a-source/&amp;sa=D&amp;ust=1597322501551000&amp;usg=AFQjCNErfKBuq4DZlehXkcG7E2ljJggNSw"/>
+    <hyperlink ref="D163" r:id="rId371" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/match-a-pattern-and-string-without-using-regular-expressions/&amp;sa=D&amp;ust=1597322501551000&amp;usg=AFQjCNH1MR6x-QpL8sQbmWAhCA3Q18RXAA"/>
+    <hyperlink ref="D162" r:id="rId372" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/backtracking-set-8-solving-cryptarithmetic-puzzles/&amp;sa=D&amp;ust=1597322501549000&amp;usg=AFQjCNFyTy8Kf2alfmR8k6Jx6Q_G2okbNQ"/>
+    <hyperlink ref="D161" r:id="rId373" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/longest-possible-route-in-a-matrix-with-hurdles/&amp;sa=D&amp;ust=1597322501548000&amp;usg=AFQjCNEoM3Dq--GDEcO_8VqzfYE1_PRrjA"/>
+    <hyperlink ref="D160" r:id="rId374" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/partition-set-k-subsets-equal-sum/&amp;sa=D&amp;ust=1597322501548000&amp;usg=AFQjCNGSflYx-NQVM5Ji_4WOHIsp7PHr0g"/>
+    <hyperlink ref="D159" r:id="rId375" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/combinational-sum/&amp;sa=D&amp;ust=1597322501547000&amp;usg=AFQjCNHFQK42KbovKNDxQNhNACHCBxH6Uw"/>
+    <hyperlink ref="D158" r:id="rId376" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-shortest-safe-route-in-a-path-with-landmines/&amp;sa=D&amp;ust=1597322501546000&amp;usg=AFQjCNGmAiXSCWWFzFG8l6hQnfIP3NZO1Q"/>
+    <hyperlink ref="D157" r:id="rId377" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-palindromic-partitions-string/&amp;sa=D&amp;ust=1597322501545000&amp;usg=AFQjCNH-nIYjLvpl5FGMxBDgowh4yCQWRQ"/>
+    <hyperlink ref="D156" r:id="rId378" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/word-break-problem-using-backtracking/&amp;sa=D&amp;ust=1597322501544000&amp;usg=AFQjCNEWWXgVT2ZeS3DctYY8UlbInc4WGw"/>
+    <hyperlink ref="D155" r:id="rId379" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/remove-invalid-parentheses/&amp;sa=D&amp;ust=1597322501543000&amp;usg=AFQjCNF-3xb58ZvrIyLltzdnBEGPd2uhvQ"/>
+    <hyperlink ref="D154" r:id="rId380" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/backtracking-set-7-suduku/&amp;sa=D&amp;ust=1597322501542000&amp;usg=AFQjCNECERokP98BnHUtcb8RjrhSMjCOjw"/>
+    <hyperlink ref="D153" r:id="rId381" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/backttracking-set-2-rat-in-a-maze/&amp;sa=D&amp;ust=1597322501541000&amp;usg=AFQjCNHH5BJwsXowWzETNL55UhUYiceiQw"/>
+    <hyperlink ref="D152" r:id="rId382" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/backtracking-set-1-the-knights-tour-problem/&amp;sa=D&amp;ust=1597322501540000&amp;usg=AFQjCNFcHYigBlJAso8AiQQdKbhqH4vT8A"/>
+    <hyperlink ref="D151" r:id="rId383" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/search-a-word-in-a-2d-grid-of-characters/&amp;sa=D&amp;ust=1597322501539000&amp;usg=AFQjCNGavPVj_FwlGPJNb7reoFv_dPs3ZQ"/>
+    <hyperlink ref="D150" r:id="rId384" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/a-boolean-matrix-question/&amp;sa=D&amp;ust=1597322501538000&amp;usg=AFQjCNFZ2jtDgXtmhe7zi9NHTo2zNE3HFA"/>
+    <hyperlink ref="D149" r:id="rId385" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/kth-smallest-element-in-a-row-wise-and-column-wise-sorted-2d-array-set-1/&amp;sa=D&amp;ust=1597322501537000&amp;usg=AFQjCNGZ_sLEclGcftyMmmwCMzl6YcqRDA"/>
+    <hyperlink ref="D148" r:id="rId386" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/inplace-rotate-square-matrix-by-90-degrees/&amp;sa=D&amp;ust=1597322501536000&amp;usg=AFQjCNEKaWJVp7FSn9PYGAIGLgXMDaZ6GQ"/>
+    <hyperlink ref="D147" r:id="rId387" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/shortest-path-in-a-binary-maze/&amp;sa=D&amp;ust=1597322501535000&amp;usg=AFQjCNHKlRHt9Tv76rv3xlGpIqn_Jga9og"/>
+    <hyperlink ref="D146" r:id="rId388" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-orientation-of-a-pattern-in-a-matrix/&amp;sa=D&amp;ust=1597322501534000&amp;usg=AFQjCNED65Cnas3D-T20HVOJPGXwRVxRYw"/>
+    <hyperlink ref="D145" r:id="rId389" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-a-specific-pair-in-matrix/&amp;sa=D&amp;ust=1597322501532000&amp;usg=AFQjCNH3qy_398fd9-oBWWg9HygSKWixeQ"/>
+    <hyperlink ref="D144" r:id="rId390" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/common-elements-in-all-rows-of-a-given-matrix/&amp;sa=D&amp;ust=1597322501531000&amp;usg=AFQjCNH70b3UmMq8UMqZy9lav3PlyOsGQw"/>
+    <hyperlink ref="D143" r:id="rId391" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-size-rectangle-binary-sub-matrix-1s/&amp;sa=D&amp;ust=1597322501530000&amp;usg=AFQjCNGibxg63BmN6iDxwaEpI-eAnDu0gQ"/>
+    <hyperlink ref="D142" r:id="rId392" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-common-element-rows-row-wise-sorted-matrix/&amp;sa=D&amp;ust=1597322501529000&amp;usg=AFQjCNGbJcTzjQjQxkB61xk2A0UM7y4MEA"/>
+    <hyperlink ref="D141" r:id="rId393" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/rotate-matrix-elements/&amp;sa=D&amp;ust=1597322501528000&amp;usg=AFQjCNGaf2U1LYX6Z5S-TSoTxHJFihZg7A"/>
+    <hyperlink ref="D140" r:id="rId394" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-matrix-o-x-find-largest-subsquare-surrounded-x/&amp;sa=D&amp;ust=1597322501526000&amp;usg=AFQjCNFEDlpvA4oLOcv8DH-OExcqZr1ovA"/>
+    <hyperlink ref="D139" r:id="rId395" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/validity-of-a-given-tic-tac-toe-board-configuration/%2B&amp;sa=D&amp;ust=1597322501525000&amp;usg=AFQjCNHlyAodgMiobsC28NENrIfyV1Sjsw"/>
+    <hyperlink ref="D138" r:id="rId396" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-matrix-o-x-replace-o-x-surrounded-x/&amp;sa=D&amp;ust=1597322501524000&amp;usg=AFQjCNEXfriXA4_QO8q0Yn_Yx3x_U2ecsg"/>
+    <hyperlink ref="D137" r:id="rId397" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-number-of-islands/&amp;sa=D&amp;ust=1597322501523000&amp;usg=AFQjCNG0ybT0nemfz7LrFZrLiOZoOb0H5A"/>
+    <hyperlink ref="D136" r:id="rId398" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/inplace-rotate-square-matrix-by-90-degrees/&amp;sa=D&amp;ust=1597322501522000&amp;usg=AFQjCNFu_L1ckHc8owKSnBV4GxGQVyjwWA"/>
+    <hyperlink ref="D135" r:id="rId399" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-elements-sorted-order-row-column-wise-sorted-matrix/&amp;sa=D&amp;ust=1597322501521000&amp;usg=AFQjCNEC2JLFXOs_G763eeyTVJk4CHfOkA"/>
+    <hyperlink ref="D134" r:id="rId400" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/create-a-matrix-with-alternating-rectangles-of-0-and-x/&amp;sa=D&amp;ust=1597322501520000&amp;usg=AFQjCNHd6zdqzyo_wKNFXBXPNH5CTtTepw"/>
+    <hyperlink ref="D133" r:id="rId401" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/zigzag-or-diagonal-traversal-of-matrix/&amp;sa=D&amp;ust=1597322501519000&amp;usg=AFQjCNE_vMR5-DiY4KFHMs6ETcJa4ilfKg"/>
+    <hyperlink ref="D132" r:id="rId402" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/searching-for-patterns-set-3-rabin-karp-algorithm/&amp;sa=D&amp;ust=1597322501518000&amp;usg=AFQjCNFFTiCvFQ54Tkw6Ogb0hXNOayBiaw"/>
+    <hyperlink ref="D131" r:id="rId403" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/recursively-print-all-sentences-that-can-be-formed-from-list-of-word-lists/&amp;sa=D&amp;ust=1597322501516000&amp;usg=AFQjCNF5Y2TA1q65vzOQtGq8MbXIrgFQIQ"/>
+    <hyperlink ref="D130" r:id="rId404" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-given-string-can-represented-substring-iterating-substring-n-times/&amp;sa=D&amp;ust=1597322501515000&amp;usg=AFQjCNHD1Q17jcQ8t4vUQE2Q864kabfrbg"/>
+    <hyperlink ref="D129" r:id="rId405" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/check-if-two-given-strings-are-isomorphic-to-each-other/&amp;sa=D&amp;ust=1597322501514000&amp;usg=AFQjCNHEJBdNG_7emHfpncBWxCDRMaBmsg"/>
+    <hyperlink ref="D128" r:id="rId406" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/repeated-subsequence-length-2/&amp;sa=D&amp;ust=1597322501513000&amp;usg=AFQjCNG-HGkXBzXaRrV1Q-IFfhekgi7HkQ"/>
+    <hyperlink ref="D127" r:id="rId407" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/transform-one-string-to-another-using-minimum-number-of-given-operation/&amp;sa=D&amp;ust=1597322501512000&amp;usg=AFQjCNE3mNGwuJWTwQqqsGMvNc63ZcW2vg"/>
+    <hyperlink ref="D126" r:id="rId408" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/searching-for-patterns-set-2-kmp-algorithm/&amp;sa=D&amp;ust=1597322501511000&amp;usg=AFQjCNHHhgdyAknl3mCgF-WSlnNuC_l2qQ"/>
+    <hyperlink ref="D125" r:id="rId409" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-concatenation-of-zig-zag-string-form-in-n-rows/&amp;sa=D&amp;ust=1597322501510000&amp;usg=AFQjCNFixnUbPR1di-FNhVh3ZzozMWPILg"/>
+    <hyperlink ref="D124" r:id="rId410" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-ways-break-string-bracket-form/&amp;sa=D&amp;ust=1597322501509000&amp;usg=AFQjCNF4bRqNlexVFCAVgTbDJAcudv5OXA"/>
+    <hyperlink ref="D123" r:id="rId411" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/length-of-the-longest-valid-substring/&amp;sa=D&amp;ust=1597322501507000&amp;usg=AFQjCNFl8GCTOUD_zPlYZoi6G17DvHtmsg"/>
+    <hyperlink ref="D122" r:id="rId412" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/check-given-sentence-given-set-simple-grammer-rules/&amp;sa=D&amp;ust=1597322501506000&amp;usg=AFQjCNH3GrKfyiezk53Dh6o9JT5p1jEW1A"/>
+    <hyperlink ref="D121" r:id="rId413" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/function-to-find-number-of-customers-who-could-not-get-a-computer/&amp;sa=D&amp;ust=1597322501505000&amp;usg=AFQjCNFkeLSxjaYd5MO9u79bO9UCl0zTUA"/>
+    <hyperlink ref="D120" r:id="rId414" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-the-longest-substring-with-k-unique-characters-in-a-given-string/&amp;sa=D&amp;ust=1597322501504000&amp;usg=AFQjCNHavPoDE3PIpAXac2OWhIbfyIqyrQ"/>
+    <hyperlink ref="D119" r:id="rId415" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-excel-column-name-given-number/&amp;sa=D&amp;ust=1597322501503000&amp;usg=AFQjCNHoNICs5YHpPM9nPqJw8n4zn1m0iw"/>
+    <hyperlink ref="D118" r:id="rId416" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-sorted-dictionary-find-precedence-characters/&amp;sa=D&amp;ust=1597322501501000&amp;usg=AFQjCNGOsQn6N8CGK-NiGQkgXcvJmuLSjg"/>
+    <hyperlink ref="D117" r:id="rId417" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-number-ascending-order-contains-1-2-3-digits/&amp;sa=D&amp;ust=1597322501500000&amp;usg=AFQjCNEIbe1sCABvEgplG9xgh4_X0WzGSA"/>
+    <hyperlink ref="D116" r:id="rId418" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/lexicographic-rank-of-a-string/&amp;sa=D&amp;ust=1597322501499000&amp;usg=AFQjCNG6j1sBskrVg7iJhB2kX6MFJ7pONA"/>
+    <hyperlink ref="D115" r:id="rId419" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/wildcard-character-matching/&amp;sa=D&amp;ust=1597322501499000&amp;usg=AFQjCNFYxxdDg0woLQwMTwRJ1p3GKV2y2Q"/>
+    <hyperlink ref="D114" r:id="rId420" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/recursively-remove-adjacent-duplicates-given-string/&amp;sa=D&amp;ust=1597322501498000&amp;usg=AFQjCNEnYIV-STKFrbGAsaTvujG6NtqswA"/>
+    <hyperlink ref="D113" r:id="rId421" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/rearrange-a-string-so-that-all-same-characters-become-at-least-d-distance-away/&amp;sa=D&amp;ust=1597322501497000&amp;usg=AFQjCNEefeLWuV1RILnhU1OMWovNrrf6SQ"/>
+    <hyperlink ref="D112" r:id="rId422" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-a-string-find-its-first-non-repeating-character/&amp;sa=D&amp;ust=1597322501495000&amp;usg=AFQjCNHnb0lDHojNthpcDcTzM2m-5K7ORQ"/>
+    <hyperlink ref="D111" r:id="rId423" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-patterns-101-given-string/&amp;sa=D&amp;ust=1597322501494000&amp;usg=AFQjCNECb_GODlvFo_06r-S3s-xwQxLZNg"/>
+    <hyperlink ref="D110" r:id="rId424" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-distinct-subsequences/&amp;sa=D&amp;ust=1597322501493000&amp;usg=AFQjCNGg3S8KgNxK226EykilqMs-wpYL6w"/>
+    <hyperlink ref="D109" r:id="rId425" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-number-times-string-occurs-given-string/&amp;sa=D&amp;ust=1597322501492000&amp;usg=AFQjCNG_Yr4MVeJazKmjOBzd0uTRCESdBA"/>
+    <hyperlink ref="D108" r:id="rId426" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/number-subsequences-string-divisible-n/&amp;sa=D&amp;ust=1597322501491000&amp;usg=AFQjCNGr7Y4zURaFRPkgrLx39jys9FOjHg"/>
+    <hyperlink ref="D107" r:id="rId427" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/number-subsequences-form-ai-bj-ck/&amp;sa=D&amp;ust=1597322501490000&amp;usg=AFQjCNE5B8c9unE52Nk8bSC44xc1IMG3Dw"/>
+    <hyperlink ref="D106" r:id="rId428" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/search-a-word-in-a-2d-grid-of-characters/&amp;sa=D&amp;ust=1597322501489000&amp;usg=AFQjCNEr10IRHOuVk0Z78_qsSvN1OqmuVA"/>
+    <hyperlink ref="D105" r:id="rId429" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-largest-word-dictionary-deleting-characters-given-string/&amp;sa=D&amp;ust=1597322501488000&amp;usg=AFQjCNGXmWOFeX0ZWU2sWoKCFOt_en1iUQ"/>
+    <hyperlink ref="D104" r:id="rId430" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-two-strings-find-first-string-subsequence-second/&amp;sa=D&amp;ust=1597322501487000&amp;usg=AFQjCNGhLSEsZL2v_NXPqoNxVNyE3BnGhQ"/>
+    <hyperlink ref="D103" r:id="rId431" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-shortest-common-supersequence/&amp;sa=D&amp;ust=1597322501486000&amp;usg=AFQjCNF-At82Sn6xEywJmVVZbze8JwAFzA"/>
+    <hyperlink ref="D102" r:id="rId432" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-longest-common-sub-sequences-lexicographical-order/&amp;sa=D&amp;ust=1597322501485000&amp;usg=AFQjCNH1JYB6jceJz3r28SCmQ_Yqai8Whw"/>
+    <hyperlink ref="D101" r:id="rId433" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/binary-representation-next-greater-number-number-1s-0s/&amp;sa=D&amp;ust=1597322501483000&amp;usg=AFQjCNEBvruEiMIsJSeM_zngJKgABYBS5Q"/>
+    <hyperlink ref="D100" r:id="rId434" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-binary-strings-k-times-appearing-adjacent-two-set-bits/&amp;sa=D&amp;ust=1597322501482000&amp;usg=AFQjCNFAKo8YlNmPhcsX8T7yH41FRaszQA"/>
+    <hyperlink ref="D99" r:id="rId435" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/min-flips-of-continuous-characters-to-make-all-characters-same-in-a-string/&amp;sa=D&amp;ust=1597322501481000&amp;usg=AFQjCNHZv7NhVxEqaTTTWZfgXKVJULB5GA"/>
+    <hyperlink ref="D98" r:id="rId436" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-total-anagram-substrings/&amp;sa=D&amp;ust=1597322501480000&amp;usg=AFQjCNFg6gtzgcvqgjRhtYO3CHoDgy3bqA"/>
+    <hyperlink ref="D97" r:id="rId437" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-all-distinct-characters-of-a-string-in-order-3-methods/&amp;sa=D&amp;ust=1597322501478000&amp;usg=AFQjCNHMUT9NQ-ZyaNoHnFgg9-Ycwde0gA"/>
+    <hyperlink ref="D96" r:id="rId438" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-number-distinct-palindromic-sub-strings-given-string/&amp;sa=D&amp;ust=1597322501477000&amp;usg=AFQjCNFqO9UwOOD2ZKdhLy0gGpjMv_LItQ"/>
+    <hyperlink ref="D95" r:id="rId439" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-words-whose-th-letter-either-1-th-th-i1-th-letter-given-word/&amp;sa=D&amp;ust=1597322501476000&amp;usg=AFQjCNFyhNf63QYRFIkst8xAJ20uoxwZ7w"/>
+    <hyperlink ref="D94" r:id="rId440" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-kth-character-of-decrypted-string/&amp;sa=D&amp;ust=1597322501475000&amp;usg=AFQjCNEPO7zg_hMEU6B1A3CEJso1LzvPKg"/>
+    <hyperlink ref="D93" r:id="rId441" display="https://www.google.com/url?q=https://www.codechef.com/JAN18/problems/STRMRG&amp;sa=D&amp;ust=1597322501474000&amp;usg=AFQjCNEDKzUq1GiFezm3pY0x6RVp33rAKw"/>
+    <hyperlink ref="D92" r:id="rId442" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/longest-non-palindromic-substring/&amp;sa=D&amp;ust=1597322501473000&amp;usg=AFQjCNFPfMH-CFspc_ideEp0Bm9sGvdQeA"/>
+    <hyperlink ref="D91" r:id="rId443" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/lexicographically-first-palindromic-string/&amp;sa=D&amp;ust=1597322501472000&amp;usg=AFQjCNHlvtdh1FKoLELixycYM7twO1hgJg"/>
+    <hyperlink ref="D90" r:id="rId444" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/make-largest-palindrome-changing-k-digits/&amp;sa=D&amp;ust=1597322501472000&amp;usg=AFQjCNGWfK4rj8QrjSr8sDRGm7ROL5jDMw"/>
+    <hyperlink ref="D89" r:id="rId445" display="https://www.google.com/url?q=https://www.codechef.com/FEB18/problems/PERMPAL&amp;sa=D&amp;ust=1597322501470000&amp;usg=AFQjCNHUnR1nGfULHHfRnlyd3lr0IHtZ-g"/>
+    <hyperlink ref="D88" r:id="rId446" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-the-smallest-window-in-a-string-containing-all-characters-of-another-string/&amp;sa=D&amp;ust=1597322501470000&amp;usg=AFQjCNFzFpKKMtvBtlxcrXRq1lwgNf4CKg"/>
+    <hyperlink ref="D87" r:id="rId447" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/longest-palindromic-substring-set-2/&amp;sa=D&amp;ust=1597322501469000&amp;usg=AFQjCNGl8-uC4r1QPyW1muwNVVnKl8-qSw"/>
+    <hyperlink ref="D86" r:id="rId448" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/check-binary-representations-two-numbers-anagram/&amp;sa=D&amp;ust=1597322501468000&amp;usg=AFQjCNHvjlEFwWRKqbiLMi-vC4-BhwCUcg"/>
+    <hyperlink ref="D85" r:id="rId449" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/check-two-strings-k-anagrams-not/&amp;sa=D&amp;ust=1597322501467000&amp;usg=AFQjCNHATZbj_kNPSz3plWIC6lszR5JHjw"/>
+    <hyperlink ref="D84" r:id="rId450" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/anagram-substring-search-search-permutations/&amp;sa=D&amp;ust=1597322501466000&amp;usg=AFQjCNFndDp42bLJvCW7JnwB5laCHmQAMQ"/>
+    <hyperlink ref="D83" r:id="rId451" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-a-sequence-of-words-print-all-anagrams-together/&amp;sa=D&amp;ust=1597322501464000&amp;usg=AFQjCNHuI4ybDvugR3Zi73HeZs6UIb4yMQ"/>
+    <hyperlink ref="D82" r:id="rId452" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-ways-increase-lcs-length-two-strings-one/&amp;sa=D&amp;ust=1597322501463000&amp;usg=AFQjCNHPygPSefUftGoi9UgIw7WhK7qyuA"/>
+    <hyperlink ref="D81" r:id="rId453" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/smallest-window-contains-characters-string/&amp;sa=D&amp;ust=1597322501462000&amp;usg=AFQjCNHhvtlvWDGrQ2zet_jBxnQu_NRFlw"/>
+    <hyperlink ref="D80" r:id="rId454" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/generate-all-binary-strings-from-given-pattern/&amp;sa=D&amp;ust=1597322501461000&amp;usg=AFQjCNFbltVyYvEDZdL6477T0Tusgov0zw"/>
+    <hyperlink ref="D79" r:id="rId455" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-words-together-set-characters/&amp;sa=D&amp;ust=1597322501460000&amp;usg=AFQjCNH-ANbpl_tieOcsODbEE6Jlq3Xb5w"/>
+    <hyperlink ref="D78" r:id="rId456" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-number-swaps-required-sort-array/&amp;sa=D&amp;ust=1597322501459000&amp;usg=AFQjCNHW3FlniK8XNGITeJQ-8bsRaXNJTw"/>
+    <hyperlink ref="D77" r:id="rId457" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-pair-with-greatest-product-in-array/&amp;sa=D&amp;ust=1597322501458000&amp;usg=AFQjCNGCKIXH19SkmfuTqjhgZ2Pe1hze4A"/>
+    <hyperlink ref="D76" r:id="rId458" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/permute-two-arrays-sum-every-pair-greater-equal-k/&amp;sa=D&amp;ust=1597322501457000&amp;usg=AFQjCNGdXylBIaEkfVqgUmtvr8y1Gt7-yA"/>
+    <hyperlink ref="D75" r:id="rId459" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-largest-multiple-3-array-digits-set-2-time-o1-space/&amp;sa=D&amp;ust=1597322501456000&amp;usg=AFQjCNGrwgJSSWvHsFQUov7DZjVr5cnIjw"/>
+    <hyperlink ref="D74" r:id="rId460" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-swaps-to-make-two-array-identical/&amp;sa=D&amp;ust=1597322501454000&amp;usg=AFQjCNESUuUKpwi4DI-WWuViVz55spyvYA"/>
+    <hyperlink ref="D73" r:id="rId461" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/sort-array-according-count-set-bits/&amp;sa=D&amp;ust=1597322501447000&amp;usg=AFQjCNHExjAvvxbdWJQ9wUqMvzgZRKjM_A"/>
+    <hyperlink ref="D72" r:id="rId462" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/insert-in-sorted-and-non-overlapping-interval-array/&amp;sa=D&amp;ust=1597322501446000&amp;usg=AFQjCNEFqLKTA9CYn4BDxtGIaWOkiUEb8A"/>
+    <hyperlink ref="G71" r:id="rId463" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/duplicates-array-using-o1-extra-space-set-2/&amp;sa=D&amp;ust=1597322501445000&amp;usg=AFQjCNHRyvCBJxGTrenbgdN4CwpmuUXcHQ"/>
+    <hyperlink ref="D71" r:id="rId464" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-duplicates-in-on-time-and-constant-extra-space/&amp;sa=D&amp;ust=1597322501445000&amp;usg=AFQjCNFueSP9GF0hgAtqSvFaI-206U7biA"/>
+    <hyperlink ref="D70" r:id="rId465" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-number-pairs-xy-yx/&amp;sa=D&amp;ust=1597322501444000&amp;usg=AFQjCNFvJHIiv_yZ0sunNEbJGADq3Jj5ug"/>
+    <hyperlink ref="D69" r:id="rId466" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/a-product-array-puzzle/&amp;sa=D&amp;ust=1597322501443000&amp;usg=AFQjCNHyTbkwpmc4wBXlIuEl_FtwGqzDWA"/>
+    <hyperlink ref="D68" r:id="rId467" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/nearly-sorted-algorithm/&amp;sa=D&amp;ust=1597322501440000&amp;usg=AFQjCNEvGSD09Ii53ZhoMZo7hqtVMQBjuQ"/>
+    <hyperlink ref="D67" r:id="rId468" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-all-subarrays-with-0-sum/&amp;sa=D&amp;ust=1597322501436000&amp;usg=AFQjCNETLkL_Yt-fTWm2qLYyQhnWMH_JoA"/>
+    <hyperlink ref="D66" r:id="rId469" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/check-reversing-sub-array-make-array-sorted/&amp;sa=D&amp;ust=1597322501433000&amp;usg=AFQjCNFFFt2F6XIOlIzlCF4BsSRLvO4xeA"/>
+    <hyperlink ref="D65" r:id="rId470" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/make-array-elements-equal-minimum-cost/&amp;sa=D&amp;ust=1597322501431000&amp;usg=AFQjCNHaN8_9OYL30BZvnwnlKKeWNCdXog"/>
+    <hyperlink ref="D64" r:id="rId471" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/median-of-stream-of-integers-running-integers/&amp;sa=D&amp;ust=1597322501430000&amp;usg=AFQjCNFlcbgTl6MdmLShBvT-x4rsImSpRw"/>
+    <hyperlink ref="D63" r:id="rId472" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/how-to-efficiently-sort-a-big-list-dates-in-20s/&amp;sa=D&amp;ust=1597322501429000&amp;usg=AFQjCNFPys_rfx3LEkX8jYuAyOQiNAqM9w"/>
+    <hyperlink ref="D62" r:id="rId473" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/radix-sort/&amp;sa=D&amp;ust=1597322501428000&amp;usg=AFQjCNHUR2cOYx3AGgIoVqCYWHBLA1wjWQ"/>
+    <hyperlink ref="D61" r:id="rId474" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/counting-sort/&amp;sa=D&amp;ust=1597322501427000&amp;usg=AFQjCNGQdisOmMhDOTyj1_tO0XePBHkwcQ"/>
+    <hyperlink ref="D60" r:id="rId475" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/3-way-quicksort-dutch-national-flag/&amp;sa=D&amp;ust=1597322501426000&amp;usg=AFQjCNFqt-FWpOXRZn3D8NZIsRgk_uCeHw"/>
+    <hyperlink ref="D59" r:id="rId476" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/merge-two-sorted-arrays-o1-extra-space/&amp;sa=D&amp;ust=1597322501426000&amp;usg=AFQjCNGOPo9W57btOJRI4Krlgm4xrLuHrQ"/>
+    <hyperlink ref="D58" r:id="rId477" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/count-triplets-with-sum-smaller-that-a-given-value/&amp;sa=D&amp;ust=1597322501425000&amp;usg=AFQjCNG3Sxlm3ybRXdKfR1XFZsicN1wH0A"/>
+    <hyperlink ref="D57" r:id="rId478" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-common-elements-three-sorted-arrays/&amp;sa=D&amp;ust=1597322501424000&amp;usg=AFQjCNGnH_uLQ336ZQVLb2JGDwyhJXFpHQ"/>
+    <hyperlink ref="D56" r:id="rId479" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-sum-such-that-no-two-elements-are-adjacent/&amp;sa=D&amp;ust=1597322501423000&amp;usg=AFQjCNEhOHVKcXTom1evjugUjQva0CO-rQ"/>
+    <hyperlink ref="D55" r:id="rId480" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/median-of-two-sorted-arrays-of-different-sizes/&amp;sa=D&amp;ust=1597322501421000&amp;usg=AFQjCNH6sA9tXprO6dO39Vokx2sBSqUrGA"/>
+    <hyperlink ref="D54" r:id="rId481" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-four-elements-that-sum-to-a-given-value-set-2/&amp;sa=D&amp;ust=1597322501420000&amp;usg=AFQjCNGdWhO4cUoDrndyL_ysUFg2yNGxxA"/>
+    <hyperlink ref="D53" r:id="rId482" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-a-pair-with-the-given-difference/&amp;sa=D&amp;ust=1597322501420000&amp;usg=AFQjCNHV-qUkSYIWXdDaKOdPEjADN9HUbQ"/>
+    <hyperlink ref="D52" r:id="rId483" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/ceiling-in-a-sorted-array/&amp;sa=D&amp;ust=1597322501419000&amp;usg=AFQjCNEpFXtXQk1DLlhXihU-n4voa1pffg"/>
+    <hyperlink ref="D51" r:id="rId484" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-a-repeating-and-a-missing-number/&amp;sa=D&amp;ust=1597322501418000&amp;usg=AFQjCNF3O0_diOdIuvb6XiGF57fiHR5Gsg"/>
+    <hyperlink ref="D50" r:id="rId485" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/searching-array-adjacent-differ-k/&amp;sa=D&amp;ust=1597322501417000&amp;usg=AFQjCNEMmj0wu45gOqgd1LczZC2QUzxiDA"/>
+    <hyperlink ref="D49" r:id="rId486" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/majority-element/&amp;sa=D&amp;ust=1597322501416000&amp;usg=AFQjCNGNAjBzxLvLaoZJB_0ZOPjW7dMrYg"/>
+    <hyperlink ref="D48" r:id="rId487" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/mos-algorithm-query-square-root-decomposition-set-1-introduction/&amp;sa=D&amp;ust=1597322501414000&amp;usg=AFQjCNHil8CKjpYoCOpRkUd1BMBkQMOxbQ"/>
+    <hyperlink ref="D47" r:id="rId488" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/space-optimization-using-bit-manipulations/&amp;sa=D&amp;ust=1597322501414000&amp;usg=AFQjCNEkLHRjJ6Gpy8hOUaJcNUxwa6Xi8A"/>
+    <hyperlink ref="D46" r:id="rId489" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-an-array-of-numbers-arrange-the-numbers-to-form-the-biggest-number/&amp;sa=D&amp;ust=1597322501413000&amp;usg=AFQjCNG3WoYvjGs6JIJCpHEC9doFUySGdw"/>
+    <hyperlink ref="D45" r:id="rId490" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/rearrange-array-maximum-minimum-form-set-2-o1-extra-space/&amp;sa=D&amp;ust=1597322501413000&amp;usg=AFQjCNGu6nU0PIWAo4ALaUatqRZ5yYRZdA"/>
+    <hyperlink ref="D44" r:id="rId491" display="https://www.google.com/url?q=https://www.codechef.com/JAN18/problems/MAXSC/&amp;sa=D&amp;ust=1597322501412000&amp;usg=AFQjCNHrw8Xmv1P_TP4KXChN_8GcMDNSjA"/>
+    <hyperlink ref="D43" r:id="rId492" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/reorder-a-array-according-to-given-indexes/&amp;sa=D&amp;ust=1597322501412000&amp;usg=AFQjCNGmrs381624rTfnhShto6usoaxeuA"/>
+    <hyperlink ref="D42" r:id="rId493" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-minimum-number-of-merge-operations-to-make-an-array-palindrome/&amp;sa=D&amp;ust=1597322501411000&amp;usg=AFQjCNGIrfuwHt-tSkR2WrvV9777KZXCqw"/>
+    <hyperlink ref="D41" r:id="rId494" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/longest-subarray-sum-divisible-k/&amp;sa=D&amp;ust=1597322501411000&amp;usg=AFQjCNEHrc7gBt1yG9v0yEfnV1YJ6-Csag"/>
+    <hyperlink ref="D40" r:id="rId495" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-all-possible-combinations-of-r-elements-in-a-given-array-of-size-n/&amp;sa=D&amp;ust=1597322501410000&amp;usg=AFQjCNE6mh2VRFyCdatQL82ozoYh06NeEA"/>
+    <hyperlink ref="D39" r:id="rId496" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/number-subarrays-maximum-value-given-range/&amp;sa=D&amp;ust=1597322501410000&amp;usg=AFQjCNGp54fgpixKn45XsjWlVxyWh9LqFg"/>
+    <hyperlink ref="D38" r:id="rId497" display="https://www.google.com/url?q=https://leetcode.com/problems/maximum-sum-of-3-non-overlapping-subarrays/description/&amp;sa=D&amp;ust=1597322501410000&amp;usg=AFQjCNF-xeFoBVfzNAdag5LczxNqS3lHig"/>
+    <hyperlink ref="D37" r:id="rId498" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-an-array-arr-find-the-maximum-j-i-such-that-arrj-arri/&amp;sa=D&amp;ust=1597322501409000&amp;usg=AFQjCNGJ84TYH5IFTK72XTprQK4GfbeC1A"/>
+    <hyperlink ref="D36" r:id="rId499" display="https://www.google.com/url?q=https://leetcode.com/problems/next-permutation/description/&amp;sa=D&amp;ust=1597322501409000&amp;usg=AFQjCNEJQXPvKm03pO31h2BsyJpEIQYwBg"/>
+    <hyperlink ref="D35" r:id="rId500" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/generate-all-possible-sorted-arrays-from-alternate-elements-of-two-given-arrays/&amp;sa=D&amp;ust=1597322501408000&amp;usg=AFQjCNEavFn9KscpJfqQzuz25A65lVLjIg"/>
+    <hyperlink ref="D34" r:id="rId501" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-smallest-value-represented-sum-subset-given-array/&amp;sa=D&amp;ust=1597322501408000&amp;usg=AFQjCNHKt9f1ZdJnY4huVR3sKCr0uhTt9w"/>
+    <hyperlink ref="D33" r:id="rId502" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/form-minimum-number-from-given-sequence/&amp;sa=D&amp;ust=1597322501407000&amp;usg=AFQjCNGyLaLXvrCg7naJ2hI8V5HnxEtvIw"/>
+    <hyperlink ref="D32" r:id="rId503" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/largest-sum-subarray-least-k-numbers/&amp;sa=D&amp;ust=1597322501407000&amp;usg=AFQjCNF2w8CXI6YSRtFSLLzKALo-1VuLGg"/>
+    <hyperlink ref="D31" r:id="rId504" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-swaps-required-bring-elements-less-equal-k-together/&amp;sa=D&amp;ust=1597322501406000&amp;usg=AFQjCNFI4qUdZvJce37tCphWMqeXdDk1kA"/>
+    <hyperlink ref="G30" r:id="rId505" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/move-zeroes-end-array-set-2-using-single-traversal/&amp;sa=D&amp;ust=1597322501406000&amp;usg=AFQjCNGNy-5262iJT0yt-t7YALzlPemOUQ"/>
+    <hyperlink ref="D30" r:id="rId506" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/move-zeroes-end-array/&amp;sa=D&amp;ust=1597322501405000&amp;usg=AFQjCNHFazz-Vtj0-1M59ZROImbqnizDgg"/>
+    <hyperlink ref="D29" r:id="rId507" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimize-the-maximum-difference-between-the-heights/&amp;sa=D&amp;ust=1597322501405000&amp;usg=AFQjCNEmauOxS1ULSz-x8M_bABDzQF5Paw"/>
+    <hyperlink ref="D28" r:id="rId508" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-difference-between-two-elements/&amp;sa=D&amp;ust=1597322501404000&amp;usg=AFQjCNGIbax43is6NCq4pGbBEO8z0GGLTA"/>
+    <hyperlink ref="D27" r:id="rId509" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-profit-by-buying-and-selling-a-share-at-most-k-times/&amp;sa=D&amp;ust=1597322501404000&amp;usg=AFQjCNHc9tyyokf3x36RcqaV7VFTN5_BTQ"/>
+    <hyperlink ref="D26" r:id="rId510" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-profit-by-buying-and-selling-a-share-at-most-twice/&amp;sa=D&amp;ust=1597322501403000&amp;usg=AFQjCNGpYwpUy__WrHutMYCbi4rEqg5dnw"/>
+    <hyperlink ref="D25" r:id="rId511" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/merging-intervals/&amp;sa=D&amp;ust=1597322501403000&amp;usg=AFQjCNEmBRPVBlbMVD7fMY4kXwQRMIdtdw"/>
+    <hyperlink ref="D24" r:id="rId512" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/sort-an-array-of-0s-1s-and-2s/&amp;sa=D&amp;ust=1597322501402000&amp;usg=AFQjCNGXl4FU3iMuMyeWgSeBPIwaPgSzWg"/>
+    <hyperlink ref="D23" r:id="rId513" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/segregate-0s-and-1s-in-an-array-by-traversing-array-once/&amp;sa=D&amp;ust=1597322501402000&amp;usg=AFQjCNH905A2jBi7M-gJUAhm7zs5WnauZg"/>
+    <hyperlink ref="D22" r:id="rId514" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/counting-inversions/&amp;sa=D&amp;ust=1597322501401000&amp;usg=AFQjCNG-8wo0rgwnof4dhCuCiRgeQz15bg"/>
+    <hyperlink ref="D21" r:id="rId515" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-product-subarray/&amp;sa=D&amp;ust=1597322501401000&amp;usg=AFQjCNFyqwPhtaIr8pmaOllcoDm4f-V25Q"/>
+    <hyperlink ref="D20" r:id="rId516" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/largest-subarray-with-equal-number-of-0s-and-1s/&amp;sa=D&amp;ust=1597322501400000&amp;usg=AFQjCNFnRcBQ-yC8sYegRDimLivf00iusg"/>
+    <hyperlink ref="D19" r:id="rId517" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-length-bitonic-subarray/&amp;sa=D&amp;ust=1597322501400000&amp;usg=AFQjCNHwgnjU8gpDWtYZ442xpTmB4gZUNg"/>
+    <hyperlink ref="D18" r:id="rId518" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/three-way-partitioning-of-an-array-around-a-given-range/&amp;sa=D&amp;ust=1597322501399000&amp;usg=AFQjCNFkHvfjvUICRPy7OKobxLssajfPDQ"/>
+    <hyperlink ref="D17" r:id="rId519" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/rearrange-positive-and-negative-numbers-publish/&amp;sa=D&amp;ust=1597322501399000&amp;usg=AFQjCNHwwzt0CUt9YAGGz41K7UJN5HFJUQ"/>
+    <hyperlink ref="D16" r:id="rId520" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-sum-iarri-among-rotations-given-array/&amp;sa=D&amp;ust=1597322501398000&amp;usg=AFQjCNFSIxhESNY5-vlD6T2hoFBZwr_oRg"/>
+    <hyperlink ref="D15" r:id="rId521" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-a-sorted-and-rotated-array-find-if-there-is-a-pair-with-a-given-sum/&amp;sa=D&amp;ust=1597322501398000&amp;usg=AFQjCNE3Gue9_LIZ94gmcLEp2vLFBH35xA"/>
+    <hyperlink ref="D14" r:id="rId522" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/search-an-element-in-a-sorted-and-pivoted-array/&amp;sa=D&amp;ust=1597322501398000&amp;usg=AFQjCNELQbdhg4CIUIkrUSl5_5GyW3lx_w"/>
+    <hyperlink ref="D13" r:id="rId523" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-k-pairs-smallest-sums-two-arrays/&amp;sa=D&amp;ust=1597322501397000&amp;usg=AFQjCNEAysKdsHCDHRFW3SZ1hkPifuoqgQ"/>
+    <hyperlink ref="D12" r:id="rId524" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/inplace-rotate-square-matrix-by-90-degrees/&amp;sa=D&amp;ust=1597322501397000&amp;usg=AFQjCNFKw2O3nqDBnYsaG2lw0OrNbNpHJg"/>
+    <hyperlink ref="D11" r:id="rId525" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/stock-buy-sell/&amp;sa=D&amp;ust=1597322501396000&amp;usg=AFQjCNFdHUqmx80e84jl7qIK5QUdYoTVnQ"/>
+    <hyperlink ref="D10" r:id="rId526" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/trapping-rain-water/&amp;sa=D&amp;ust=1597322501396000&amp;usg=AFQjCNEzlCBWkzglGEVbQdWSgbOuJAdYiw"/>
+    <hyperlink ref="D9" r:id="rId527" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-number-platforms-required-railwaybus-station/&amp;sa=D&amp;ust=1597322501395000&amp;usg=AFQjCNHxWrorZ2cPhEBjP55Nbn7VzXr5cQ"/>
+    <hyperlink ref="D8" r:id="rId528" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/chocolate-distribution-problem/&amp;sa=D&amp;ust=1597322501395000&amp;usg=AFQjCNETh6Z8PnMZ3IyHRVJCzUygb0PI1w"/>
+    <hyperlink ref="D7" r:id="rId529" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-a-pair-with-the-given-difference/&amp;sa=D&amp;ust=1597322501314000&amp;usg=AFQjCNEEmi1GaP6X58jRd5gZQyDE_5NJaw"/>
+    <hyperlink ref="D6" r:id="rId530" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/convert-array-into-zig-zag-fashion/&amp;sa=D&amp;ust=1597322501314000&amp;usg=AFQjCNFepPmjR-FXz9874L84G5dr_hs56g"/>
+    <hyperlink ref="D5" r:id="rId531" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/dynamic-programming-set-14-maximum-sum-increasing-subsequence/&amp;sa=D&amp;ust=1597322501313000&amp;usg=AFQjCNEDXGixpuKJG_j-GjdoHryU71DP4w"/>
+    <hyperlink ref="D4" r:id="rId532" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/equilibrium-index-of-an-array/&amp;sa=D&amp;ust=1597322501313000&amp;usg=AFQjCNHtz7NOmLbAfKmVWLefSSO03xJjsQ"/>
+    <hyperlink ref="G3" r:id="rId533" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/minimum-length-subarray-sum-greater-given-value/&amp;sa=D&amp;ust=1597322501312000&amp;usg=AFQjCNEh6noa4BIAsY9CdZ3r7WBxES4IOw"/>
+    <hyperlink ref="D3" r:id="rId534" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/find-subarray-with-given-sum/&amp;sa=D&amp;ust=1597322501312000&amp;usg=AFQjCNFG949QPcFpaFeumKG9kcH9IHhJtw"/>
+    <hyperlink ref="D2" r:id="rId535" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/maximum-contiguous-circular-sum/&amp;sa=D&amp;ust=1597322501312000&amp;usg=AFQjCNGrW_XvUTpyHBj6wMIWVfiJgL4pMw"/>
+    <hyperlink ref="D1" r:id="rId536" display="https://www.google.com/url?q=https://www.codechef.com/JAN18/problems/KCON/&amp;sa=D&amp;ust=1597322501311000&amp;usg=AFQjCNFy5fxqK_MpO9FAn-vQj6G6e3Escg"/>
+    <hyperlink ref="D267" r:id="rId537" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/given-only-a-pointer-to-a-node-to-be-deleted-in-a-singly-linked-list-how-do-you-delete-it/&amp;sa=D&amp;ust=1597322501617000&amp;usg=AFQjCNEbQswwh_TW0ilaEY7-jjacbmUsSQ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId538"/>

--- a/interview preparation.xlsx
+++ b/interview preparation.xlsx
@@ -3073,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC928"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="A267" sqref="A267:XFD267"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="A299" sqref="A299:XFD299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14845,41 +14845,41 @@
       <c r="AB298" s="3"/>
       <c r="AC298" s="3"/>
     </row>
-    <row r="299" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A299">
+    <row r="299" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="9">
         <v>300</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="9">
         <v>10</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="H299" s="3"/>
-      <c r="I299" s="3"/>
-      <c r="J299" s="3"/>
-      <c r="K299" s="3"/>
-      <c r="L299" s="3"/>
-      <c r="M299" s="3"/>
-      <c r="N299" s="3"/>
-      <c r="O299" s="3"/>
-      <c r="P299" s="3"/>
-      <c r="Q299" s="3"/>
-      <c r="R299" s="3"/>
-      <c r="S299" s="3"/>
-      <c r="T299" s="3"/>
-      <c r="U299" s="3"/>
-      <c r="V299" s="3"/>
-      <c r="W299" s="3"/>
-      <c r="X299" s="3"/>
-      <c r="Y299" s="3"/>
-      <c r="Z299" s="3"/>
-      <c r="AA299" s="3"/>
-      <c r="AB299" s="3"/>
-      <c r="AC299" s="3"/>
+      <c r="H299" s="10"/>
+      <c r="I299" s="10"/>
+      <c r="J299" s="10"/>
+      <c r="K299" s="10"/>
+      <c r="L299" s="10"/>
+      <c r="M299" s="10"/>
+      <c r="N299" s="10"/>
+      <c r="O299" s="10"/>
+      <c r="P299" s="10"/>
+      <c r="Q299" s="10"/>
+      <c r="R299" s="10"/>
+      <c r="S299" s="10"/>
+      <c r="T299" s="10"/>
+      <c r="U299" s="10"/>
+      <c r="V299" s="10"/>
+      <c r="W299" s="10"/>
+      <c r="X299" s="10"/>
+      <c r="Y299" s="10"/>
+      <c r="Z299" s="10"/>
+      <c r="AA299" s="10"/>
+      <c r="AB299" s="10"/>
+      <c r="AC299" s="10"/>
     </row>
     <row r="300" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300">

--- a/interview preparation.xlsx
+++ b/interview preparation.xlsx
@@ -3064,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC927"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B435" workbookViewId="0">
+      <selection activeCell="B442" sqref="A442:XFD442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20200,44 +20200,44 @@
       <c r="AB441" s="3"/>
       <c r="AC441" s="3"/>
     </row>
-    <row r="442" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A442">
+    <row r="442" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A442" s="9">
         <v>444</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B442" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C442" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="D442" t="s">
+      <c r="D442" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="E442" t="s">
+      <c r="E442" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="H442" s="3"/>
-      <c r="I442" s="3"/>
-      <c r="J442" s="3"/>
-      <c r="K442" s="3"/>
-      <c r="L442" s="3"/>
-      <c r="M442" s="3"/>
-      <c r="N442" s="3"/>
-      <c r="O442" s="3"/>
-      <c r="P442" s="3"/>
-      <c r="Q442" s="3"/>
-      <c r="R442" s="3"/>
-      <c r="S442" s="3"/>
-      <c r="T442" s="3"/>
-      <c r="U442" s="3"/>
-      <c r="V442" s="3"/>
-      <c r="W442" s="3"/>
-      <c r="X442" s="3"/>
-      <c r="Y442" s="3"/>
-      <c r="Z442" s="3"/>
-      <c r="AA442" s="3"/>
-      <c r="AB442" s="3"/>
-      <c r="AC442" s="3"/>
+      <c r="H442" s="10"/>
+      <c r="I442" s="10"/>
+      <c r="J442" s="10"/>
+      <c r="K442" s="10"/>
+      <c r="L442" s="10"/>
+      <c r="M442" s="10"/>
+      <c r="N442" s="10"/>
+      <c r="O442" s="10"/>
+      <c r="P442" s="10"/>
+      <c r="Q442" s="10"/>
+      <c r="R442" s="10"/>
+      <c r="S442" s="10"/>
+      <c r="T442" s="10"/>
+      <c r="U442" s="10"/>
+      <c r="V442" s="10"/>
+      <c r="W442" s="10"/>
+      <c r="X442" s="10"/>
+      <c r="Y442" s="10"/>
+      <c r="Z442" s="10"/>
+      <c r="AA442" s="10"/>
+      <c r="AB442" s="10"/>
+      <c r="AC442" s="10"/>
     </row>
     <row r="443" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443">

--- a/interview preparation.xlsx
+++ b/interview preparation.xlsx
@@ -3064,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B435" workbookViewId="0">
-      <selection activeCell="B442" sqref="A442:XFD442"/>
+    <sheetView tabSelected="1" topLeftCell="B459" workbookViewId="0">
+      <selection activeCell="B469" sqref="A469:XFD469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21160,44 +21160,44 @@
       <c r="AB468" s="1"/>
       <c r="AC468" s="1"/>
     </row>
-    <row r="469" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A469">
+    <row r="469" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="9">
         <v>471</v>
       </c>
-      <c r="B469">
+      <c r="B469" s="9">
         <v>15</v>
       </c>
-      <c r="C469" t="s">
+      <c r="C469" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="D469" t="s">
+      <c r="D469" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="E469" t="s">
+      <c r="E469" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="H469" s="1"/>
-      <c r="I469" s="1"/>
-      <c r="J469" s="1"/>
-      <c r="K469" s="1"/>
-      <c r="L469" s="1"/>
-      <c r="M469" s="1"/>
-      <c r="N469" s="1"/>
-      <c r="O469" s="1"/>
-      <c r="P469" s="1"/>
-      <c r="Q469" s="1"/>
-      <c r="R469" s="1"/>
-      <c r="S469" s="1"/>
-      <c r="T469" s="1"/>
-      <c r="U469" s="1"/>
-      <c r="V469" s="1"/>
-      <c r="W469" s="1"/>
-      <c r="X469" s="1"/>
-      <c r="Y469" s="1"/>
-      <c r="Z469" s="1"/>
-      <c r="AA469" s="1"/>
-      <c r="AB469" s="1"/>
-      <c r="AC469" s="1"/>
+      <c r="H469" s="11"/>
+      <c r="I469" s="11"/>
+      <c r="J469" s="11"/>
+      <c r="K469" s="11"/>
+      <c r="L469" s="11"/>
+      <c r="M469" s="11"/>
+      <c r="N469" s="11"/>
+      <c r="O469" s="11"/>
+      <c r="P469" s="11"/>
+      <c r="Q469" s="11"/>
+      <c r="R469" s="11"/>
+      <c r="S469" s="11"/>
+      <c r="T469" s="11"/>
+      <c r="U469" s="11"/>
+      <c r="V469" s="11"/>
+      <c r="W469" s="11"/>
+      <c r="X469" s="11"/>
+      <c r="Y469" s="11"/>
+      <c r="Z469" s="11"/>
+      <c r="AA469" s="11"/>
+      <c r="AB469" s="11"/>
+      <c r="AC469" s="11"/>
     </row>
     <row r="470" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470">

--- a/interview preparation.xlsx
+++ b/interview preparation.xlsx
@@ -3064,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B459" workbookViewId="0">
-      <selection activeCell="B469" sqref="A469:XFD469"/>
+    <sheetView tabSelected="1" topLeftCell="B531" workbookViewId="0">
+      <selection activeCell="B541" sqref="A541:XFD541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22714,41 +22714,41 @@
       <c r="AB509" s="3"/>
       <c r="AC509" s="3"/>
     </row>
-    <row r="510" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A510">
+    <row r="510" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A510" s="9">
         <v>512</v>
       </c>
-      <c r="B510">
+      <c r="B510" s="9">
         <v>17</v>
       </c>
-      <c r="C510" t="s">
+      <c r="C510" s="9" t="s">
         <v>834</v>
       </c>
-      <c r="D510" t="s">
+      <c r="D510" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="H510" s="3"/>
-      <c r="I510" s="3"/>
-      <c r="J510" s="3"/>
-      <c r="K510" s="3"/>
-      <c r="L510" s="3"/>
-      <c r="M510" s="3"/>
-      <c r="N510" s="3"/>
-      <c r="O510" s="3"/>
-      <c r="P510" s="3"/>
-      <c r="Q510" s="3"/>
-      <c r="R510" s="3"/>
-      <c r="S510" s="3"/>
-      <c r="T510" s="3"/>
-      <c r="U510" s="3"/>
-      <c r="V510" s="3"/>
-      <c r="W510" s="3"/>
-      <c r="X510" s="3"/>
-      <c r="Y510" s="3"/>
-      <c r="Z510" s="3"/>
-      <c r="AA510" s="3"/>
-      <c r="AB510" s="3"/>
-      <c r="AC510" s="3"/>
+      <c r="H510" s="10"/>
+      <c r="I510" s="10"/>
+      <c r="J510" s="10"/>
+      <c r="K510" s="10"/>
+      <c r="L510" s="10"/>
+      <c r="M510" s="10"/>
+      <c r="N510" s="10"/>
+      <c r="O510" s="10"/>
+      <c r="P510" s="10"/>
+      <c r="Q510" s="10"/>
+      <c r="R510" s="10"/>
+      <c r="S510" s="10"/>
+      <c r="T510" s="10"/>
+      <c r="U510" s="10"/>
+      <c r="V510" s="10"/>
+      <c r="W510" s="10"/>
+      <c r="X510" s="10"/>
+      <c r="Y510" s="10"/>
+      <c r="Z510" s="10"/>
+      <c r="AA510" s="10"/>
+      <c r="AB510" s="10"/>
+      <c r="AC510" s="10"/>
     </row>
     <row r="511" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511">
@@ -23779,41 +23779,41 @@
       <c r="AB540" s="3"/>
       <c r="AC540" s="3"/>
     </row>
-    <row r="541" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A541">
+    <row r="541" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A541" s="9">
         <v>543</v>
       </c>
-      <c r="B541">
+      <c r="B541" s="9">
         <v>20</v>
       </c>
-      <c r="C541" t="s">
+      <c r="C541" s="9" t="s">
         <v>850</v>
       </c>
-      <c r="D541" t="s">
+      <c r="D541" s="9" t="s">
         <v>852</v>
       </c>
-      <c r="H541" s="3"/>
-      <c r="I541" s="3"/>
-      <c r="J541" s="3"/>
-      <c r="K541" s="3"/>
-      <c r="L541" s="3"/>
-      <c r="M541" s="3"/>
-      <c r="N541" s="3"/>
-      <c r="O541" s="3"/>
-      <c r="P541" s="3"/>
-      <c r="Q541" s="3"/>
-      <c r="R541" s="3"/>
-      <c r="S541" s="3"/>
-      <c r="T541" s="3"/>
-      <c r="U541" s="3"/>
-      <c r="V541" s="3"/>
-      <c r="W541" s="3"/>
-      <c r="X541" s="3"/>
-      <c r="Y541" s="3"/>
-      <c r="Z541" s="3"/>
-      <c r="AA541" s="3"/>
-      <c r="AB541" s="3"/>
-      <c r="AC541" s="3"/>
+      <c r="H541" s="10"/>
+      <c r="I541" s="10"/>
+      <c r="J541" s="10"/>
+      <c r="K541" s="10"/>
+      <c r="L541" s="10"/>
+      <c r="M541" s="10"/>
+      <c r="N541" s="10"/>
+      <c r="O541" s="10"/>
+      <c r="P541" s="10"/>
+      <c r="Q541" s="10"/>
+      <c r="R541" s="10"/>
+      <c r="S541" s="10"/>
+      <c r="T541" s="10"/>
+      <c r="U541" s="10"/>
+      <c r="V541" s="10"/>
+      <c r="W541" s="10"/>
+      <c r="X541" s="10"/>
+      <c r="Y541" s="10"/>
+      <c r="Z541" s="10"/>
+      <c r="AA541" s="10"/>
+      <c r="AB541" s="10"/>
+      <c r="AC541" s="10"/>
     </row>
     <row r="542" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542">

--- a/interview preparation.xlsx
+++ b/interview preparation.xlsx
@@ -3064,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B531" workbookViewId="0">
-      <selection activeCell="B541" sqref="A541:XFD541"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3133,50 +3133,50 @@
       <c r="AB1" s="10"/>
       <c r="AC1" s="10"/>
     </row>
-    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
     </row>
     <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -24052,122 +24052,122 @@
       <c r="AB548" s="3"/>
       <c r="AC548" s="3"/>
     </row>
-    <row r="549" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A549">
+    <row r="549" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A549" s="9">
         <v>551</v>
       </c>
-      <c r="B549">
+      <c r="B549" s="9">
         <v>8</v>
       </c>
-      <c r="C549" t="s">
+      <c r="C549" s="9" t="s">
         <v>854</v>
       </c>
-      <c r="D549" t="s">
+      <c r="D549" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="E549" t="s">
+      <c r="E549" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="H549" s="3"/>
-      <c r="I549" s="3"/>
-      <c r="J549" s="3"/>
-      <c r="K549" s="3"/>
-      <c r="L549" s="3"/>
-      <c r="M549" s="3"/>
-      <c r="N549" s="3"/>
-      <c r="O549" s="3"/>
-      <c r="P549" s="3"/>
-      <c r="Q549" s="3"/>
-      <c r="R549" s="3"/>
-      <c r="S549" s="3"/>
-      <c r="T549" s="3"/>
-      <c r="U549" s="3"/>
-      <c r="V549" s="3"/>
-      <c r="W549" s="3"/>
-      <c r="X549" s="3"/>
-      <c r="Y549" s="3"/>
-      <c r="Z549" s="3"/>
-      <c r="AA549" s="3"/>
-      <c r="AB549" s="3"/>
-      <c r="AC549" s="3"/>
-    </row>
-    <row r="550" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A550">
+      <c r="H549" s="10"/>
+      <c r="I549" s="10"/>
+      <c r="J549" s="10"/>
+      <c r="K549" s="10"/>
+      <c r="L549" s="10"/>
+      <c r="M549" s="10"/>
+      <c r="N549" s="10"/>
+      <c r="O549" s="10"/>
+      <c r="P549" s="10"/>
+      <c r="Q549" s="10"/>
+      <c r="R549" s="10"/>
+      <c r="S549" s="10"/>
+      <c r="T549" s="10"/>
+      <c r="U549" s="10"/>
+      <c r="V549" s="10"/>
+      <c r="W549" s="10"/>
+      <c r="X549" s="10"/>
+      <c r="Y549" s="10"/>
+      <c r="Z549" s="10"/>
+      <c r="AA549" s="10"/>
+      <c r="AB549" s="10"/>
+      <c r="AC549" s="10"/>
+    </row>
+    <row r="550" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A550" s="9">
         <v>552</v>
       </c>
-      <c r="B550">
+      <c r="B550" s="9">
         <v>8</v>
       </c>
-      <c r="C550" t="s">
+      <c r="C550" s="9" t="s">
         <v>855</v>
       </c>
-      <c r="D550" t="s">
+      <c r="D550" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="E550" t="s">
+      <c r="E550" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="H550" s="3"/>
-      <c r="I550" s="3"/>
-      <c r="J550" s="3"/>
-      <c r="K550" s="3"/>
-      <c r="L550" s="3"/>
-      <c r="M550" s="3"/>
-      <c r="N550" s="3"/>
-      <c r="O550" s="3"/>
-      <c r="P550" s="3"/>
-      <c r="Q550" s="3"/>
-      <c r="R550" s="3"/>
-      <c r="S550" s="3"/>
-      <c r="T550" s="3"/>
-      <c r="U550" s="3"/>
-      <c r="V550" s="3"/>
-      <c r="W550" s="3"/>
-      <c r="X550" s="3"/>
-      <c r="Y550" s="3"/>
-      <c r="Z550" s="3"/>
-      <c r="AA550" s="3"/>
-      <c r="AB550" s="3"/>
-      <c r="AC550" s="3"/>
-    </row>
-    <row r="551" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A551">
+      <c r="H550" s="10"/>
+      <c r="I550" s="10"/>
+      <c r="J550" s="10"/>
+      <c r="K550" s="10"/>
+      <c r="L550" s="10"/>
+      <c r="M550" s="10"/>
+      <c r="N550" s="10"/>
+      <c r="O550" s="10"/>
+      <c r="P550" s="10"/>
+      <c r="Q550" s="10"/>
+      <c r="R550" s="10"/>
+      <c r="S550" s="10"/>
+      <c r="T550" s="10"/>
+      <c r="U550" s="10"/>
+      <c r="V550" s="10"/>
+      <c r="W550" s="10"/>
+      <c r="X550" s="10"/>
+      <c r="Y550" s="10"/>
+      <c r="Z550" s="10"/>
+      <c r="AA550" s="10"/>
+      <c r="AB550" s="10"/>
+      <c r="AC550" s="10"/>
+    </row>
+    <row r="551" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A551" s="9">
         <v>553</v>
       </c>
-      <c r="B551">
+      <c r="B551" s="9">
         <v>9</v>
       </c>
-      <c r="C551" t="s">
+      <c r="C551" s="9" t="s">
         <v>856</v>
       </c>
-      <c r="D551" t="s">
+      <c r="D551" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="E551" t="s">
+      <c r="E551" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="H551" s="3"/>
-      <c r="I551" s="3"/>
-      <c r="J551" s="3"/>
-      <c r="K551" s="3"/>
-      <c r="L551" s="3"/>
-      <c r="M551" s="3"/>
-      <c r="N551" s="3"/>
-      <c r="O551" s="3"/>
-      <c r="P551" s="3"/>
-      <c r="Q551" s="3"/>
-      <c r="R551" s="3"/>
-      <c r="S551" s="3"/>
-      <c r="T551" s="3"/>
-      <c r="U551" s="3"/>
-      <c r="V551" s="3"/>
-      <c r="W551" s="3"/>
-      <c r="X551" s="3"/>
-      <c r="Y551" s="3"/>
-      <c r="Z551" s="3"/>
-      <c r="AA551" s="3"/>
-      <c r="AB551" s="3"/>
-      <c r="AC551" s="3"/>
+      <c r="H551" s="10"/>
+      <c r="I551" s="10"/>
+      <c r="J551" s="10"/>
+      <c r="K551" s="10"/>
+      <c r="L551" s="10"/>
+      <c r="M551" s="10"/>
+      <c r="N551" s="10"/>
+      <c r="O551" s="10"/>
+      <c r="P551" s="10"/>
+      <c r="Q551" s="10"/>
+      <c r="R551" s="10"/>
+      <c r="S551" s="10"/>
+      <c r="T551" s="10"/>
+      <c r="U551" s="10"/>
+      <c r="V551" s="10"/>
+      <c r="W551" s="10"/>
+      <c r="X551" s="10"/>
+      <c r="Y551" s="10"/>
+      <c r="Z551" s="10"/>
+      <c r="AA551" s="10"/>
+      <c r="AB551" s="10"/>
+      <c r="AC551" s="10"/>
     </row>
     <row r="552" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552">

--- a/interview preparation.xlsx
+++ b/interview preparation.xlsx
@@ -3064,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/interview preparation.xlsx
+++ b/interview preparation.xlsx
@@ -3064,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="B303" workbookViewId="0">
+      <selection activeCell="D267" sqref="D267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5104,44 +5104,44 @@
       <c r="AB48" s="10"/>
       <c r="AC48" s="10"/>
     </row>
-    <row r="49" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
         <v>51</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="9">
         <v>2</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
     </row>
     <row r="50" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50">
@@ -6292,44 +6292,44 @@
       <c r="AB78" s="11"/>
       <c r="AC78" s="11"/>
     </row>
-    <row r="79" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="79" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="9">
         <v>81</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="9">
         <v>3</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="11"/>
+      <c r="AA79" s="11"/>
+      <c r="AB79" s="11"/>
+      <c r="AC79" s="11"/>
     </row>
     <row r="80" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -9115,44 +9115,44 @@
       <c r="AB151" s="11"/>
       <c r="AC151" s="11"/>
     </row>
-    <row r="152" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152">
+    <row r="152" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="9">
         <v>154</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="9">
         <v>5</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
-      <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
-      <c r="N152" s="1"/>
-      <c r="O152" s="1"/>
-      <c r="P152" s="1"/>
-      <c r="Q152" s="1"/>
-      <c r="R152" s="1"/>
-      <c r="S152" s="1"/>
-      <c r="T152" s="1"/>
-      <c r="U152" s="1"/>
-      <c r="V152" s="1"/>
-      <c r="W152" s="1"/>
-      <c r="X152" s="1"/>
-      <c r="Y152" s="1"/>
-      <c r="Z152" s="1"/>
-      <c r="AA152" s="1"/>
-      <c r="AB152" s="1"/>
-      <c r="AC152" s="1"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
+      <c r="Q152" s="11"/>
+      <c r="R152" s="11"/>
+      <c r="S152" s="11"/>
+      <c r="T152" s="11"/>
+      <c r="U152" s="11"/>
+      <c r="V152" s="11"/>
+      <c r="W152" s="11"/>
+      <c r="X152" s="11"/>
+      <c r="Y152" s="11"/>
+      <c r="Z152" s="11"/>
+      <c r="AA152" s="11"/>
+      <c r="AB152" s="11"/>
+      <c r="AC152" s="11"/>
     </row>
     <row r="153" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153">
@@ -9862,44 +9862,44 @@
       <c r="AB170" s="3"/>
       <c r="AC170" s="3"/>
     </row>
-    <row r="171" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171">
+    <row r="171" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="9">
         <v>173</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="9">
         <v>6</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
-      <c r="K171" s="3"/>
-      <c r="L171" s="3"/>
-      <c r="M171" s="3"/>
-      <c r="N171" s="3"/>
-      <c r="O171" s="3"/>
-      <c r="P171" s="3"/>
-      <c r="Q171" s="3"/>
-      <c r="R171" s="3"/>
-      <c r="S171" s="3"/>
-      <c r="T171" s="3"/>
-      <c r="U171" s="3"/>
-      <c r="V171" s="3"/>
-      <c r="W171" s="3"/>
-      <c r="X171" s="3"/>
-      <c r="Y171" s="3"/>
-      <c r="Z171" s="3"/>
-      <c r="AA171" s="3"/>
-      <c r="AB171" s="3"/>
-      <c r="AC171" s="3"/>
+      <c r="H171" s="10"/>
+      <c r="I171" s="10"/>
+      <c r="J171" s="10"/>
+      <c r="K171" s="10"/>
+      <c r="L171" s="10"/>
+      <c r="M171" s="10"/>
+      <c r="N171" s="10"/>
+      <c r="O171" s="10"/>
+      <c r="P171" s="10"/>
+      <c r="Q171" s="10"/>
+      <c r="R171" s="10"/>
+      <c r="S171" s="10"/>
+      <c r="T171" s="10"/>
+      <c r="U171" s="10"/>
+      <c r="V171" s="10"/>
+      <c r="W171" s="10"/>
+      <c r="X171" s="10"/>
+      <c r="Y171" s="10"/>
+      <c r="Z171" s="10"/>
+      <c r="AA171" s="10"/>
+      <c r="AB171" s="10"/>
+      <c r="AC171" s="10"/>
     </row>
     <row r="172" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172">
@@ -10690,44 +10690,44 @@
       <c r="AB192" s="10"/>
       <c r="AC192" s="10"/>
     </row>
-    <row r="193" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193">
+    <row r="193" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="9">
         <v>195</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="9">
         <v>7</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
-      <c r="L193" s="3"/>
-      <c r="M193" s="3"/>
-      <c r="N193" s="3"/>
-      <c r="O193" s="3"/>
-      <c r="P193" s="3"/>
-      <c r="Q193" s="3"/>
-      <c r="R193" s="3"/>
-      <c r="S193" s="3"/>
-      <c r="T193" s="3"/>
-      <c r="U193" s="3"/>
-      <c r="V193" s="3"/>
-      <c r="W193" s="3"/>
-      <c r="X193" s="3"/>
-      <c r="Y193" s="3"/>
-      <c r="Z193" s="3"/>
-      <c r="AA193" s="3"/>
-      <c r="AB193" s="3"/>
-      <c r="AC193" s="3"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="10"/>
+      <c r="K193" s="10"/>
+      <c r="L193" s="10"/>
+      <c r="M193" s="10"/>
+      <c r="N193" s="10"/>
+      <c r="O193" s="10"/>
+      <c r="P193" s="10"/>
+      <c r="Q193" s="10"/>
+      <c r="R193" s="10"/>
+      <c r="S193" s="10"/>
+      <c r="T193" s="10"/>
+      <c r="U193" s="10"/>
+      <c r="V193" s="10"/>
+      <c r="W193" s="10"/>
+      <c r="X193" s="10"/>
+      <c r="Y193" s="10"/>
+      <c r="Z193" s="10"/>
+      <c r="AA193" s="10"/>
+      <c r="AB193" s="10"/>
+      <c r="AC193" s="10"/>
     </row>
     <row r="194" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194">
@@ -12772,44 +12772,44 @@
       <c r="AB245" s="12"/>
       <c r="AC245" s="12"/>
     </row>
-    <row r="246" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246">
+    <row r="246" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="9">
         <v>248</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="9">
         <v>8</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E246" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="H246" s="2"/>
-      <c r="I246" s="2"/>
-      <c r="J246" s="2"/>
-      <c r="K246" s="2"/>
-      <c r="L246" s="2"/>
-      <c r="M246" s="2"/>
-      <c r="N246" s="2"/>
-      <c r="O246" s="2"/>
-      <c r="P246" s="2"/>
-      <c r="Q246" s="2"/>
-      <c r="R246" s="2"/>
-      <c r="S246" s="2"/>
-      <c r="T246" s="2"/>
-      <c r="U246" s="2"/>
-      <c r="V246" s="2"/>
-      <c r="W246" s="2"/>
-      <c r="X246" s="2"/>
-      <c r="Y246" s="2"/>
-      <c r="Z246" s="2"/>
-      <c r="AA246" s="2"/>
-      <c r="AB246" s="2"/>
-      <c r="AC246" s="2"/>
+      <c r="H246" s="12"/>
+      <c r="I246" s="12"/>
+      <c r="J246" s="12"/>
+      <c r="K246" s="12"/>
+      <c r="L246" s="12"/>
+      <c r="M246" s="12"/>
+      <c r="N246" s="12"/>
+      <c r="O246" s="12"/>
+      <c r="P246" s="12"/>
+      <c r="Q246" s="12"/>
+      <c r="R246" s="12"/>
+      <c r="S246" s="12"/>
+      <c r="T246" s="12"/>
+      <c r="U246" s="12"/>
+      <c r="V246" s="12"/>
+      <c r="W246" s="12"/>
+      <c r="X246" s="12"/>
+      <c r="Y246" s="12"/>
+      <c r="Z246" s="12"/>
+      <c r="AA246" s="12"/>
+      <c r="AB246" s="12"/>
+      <c r="AC246" s="12"/>
     </row>
     <row r="247" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247">
@@ -13607,7 +13607,7 @@
       <c r="C267" t="s">
         <v>478</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="9" t="s">
         <v>481</v>
       </c>
       <c r="E267" t="s">

--- a/interview preparation.xlsx
+++ b/interview preparation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="868">
   <si>
     <t>Array</t>
   </si>
@@ -2625,6 +2625,9 @@
   </si>
   <si>
     <t>LCA of all Nodes in a tree - NlogN</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -3064,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B303" workbookViewId="0">
-      <selection activeCell="D267" sqref="D267"/>
+    <sheetView tabSelected="1" topLeftCell="C464" workbookViewId="0">
+      <selection activeCell="D470" sqref="D470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15359,7 +15362,7 @@
       <c r="C313" t="s">
         <v>553</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="9" t="s">
         <v>556</v>
       </c>
       <c r="H313" s="3"/>
@@ -18277,44 +18280,44 @@
       <c r="AB392" s="11"/>
       <c r="AC392" s="11"/>
     </row>
-    <row r="393" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A393">
+    <row r="393" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="9">
         <v>395</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="9">
         <v>12</v>
       </c>
-      <c r="C393" t="s">
+      <c r="C393" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="D393" t="s">
+      <c r="D393" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="E393" t="s">
+      <c r="E393" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="H393" s="1"/>
-      <c r="I393" s="1"/>
-      <c r="J393" s="1"/>
-      <c r="K393" s="1"/>
-      <c r="L393" s="1"/>
-      <c r="M393" s="1"/>
-      <c r="N393" s="1"/>
-      <c r="O393" s="1"/>
-      <c r="P393" s="1"/>
-      <c r="Q393" s="1"/>
-      <c r="R393" s="1"/>
-      <c r="S393" s="1"/>
-      <c r="T393" s="1"/>
-      <c r="U393" s="1"/>
-      <c r="V393" s="1"/>
-      <c r="W393" s="1"/>
-      <c r="X393" s="1"/>
-      <c r="Y393" s="1"/>
-      <c r="Z393" s="1"/>
-      <c r="AA393" s="1"/>
-      <c r="AB393" s="1"/>
-      <c r="AC393" s="1"/>
+      <c r="H393" s="11"/>
+      <c r="I393" s="11"/>
+      <c r="J393" s="11"/>
+      <c r="K393" s="11"/>
+      <c r="L393" s="11"/>
+      <c r="M393" s="11"/>
+      <c r="N393" s="11"/>
+      <c r="O393" s="11"/>
+      <c r="P393" s="11"/>
+      <c r="Q393" s="11"/>
+      <c r="R393" s="11"/>
+      <c r="S393" s="11"/>
+      <c r="T393" s="11"/>
+      <c r="U393" s="11"/>
+      <c r="V393" s="11"/>
+      <c r="W393" s="11"/>
+      <c r="X393" s="11"/>
+      <c r="Y393" s="11"/>
+      <c r="Z393" s="11"/>
+      <c r="AA393" s="11"/>
+      <c r="AB393" s="11"/>
+      <c r="AC393" s="11"/>
     </row>
     <row r="394" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394">
@@ -20239,41 +20242,41 @@
       <c r="AB442" s="10"/>
       <c r="AC442" s="10"/>
     </row>
-    <row r="443" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A443">
+    <row r="443" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A443" s="9">
         <v>445</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="C443" t="s">
-        <v>705</v>
-      </c>
-      <c r="D443" t="s">
+      <c r="C443" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="D443" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="H443" s="3"/>
-      <c r="I443" s="3"/>
-      <c r="J443" s="3"/>
-      <c r="K443" s="3"/>
-      <c r="L443" s="3"/>
-      <c r="M443" s="3"/>
-      <c r="N443" s="3"/>
-      <c r="O443" s="3"/>
-      <c r="P443" s="3"/>
-      <c r="Q443" s="3"/>
-      <c r="R443" s="3"/>
-      <c r="S443" s="3"/>
-      <c r="T443" s="3"/>
-      <c r="U443" s="3"/>
-      <c r="V443" s="3"/>
-      <c r="W443" s="3"/>
-      <c r="X443" s="3"/>
-      <c r="Y443" s="3"/>
-      <c r="Z443" s="3"/>
-      <c r="AA443" s="3"/>
-      <c r="AB443" s="3"/>
-      <c r="AC443" s="3"/>
+      <c r="H443" s="10"/>
+      <c r="I443" s="10"/>
+      <c r="J443" s="10"/>
+      <c r="K443" s="10"/>
+      <c r="L443" s="10"/>
+      <c r="M443" s="10"/>
+      <c r="N443" s="10"/>
+      <c r="O443" s="10"/>
+      <c r="P443" s="10"/>
+      <c r="Q443" s="10"/>
+      <c r="R443" s="10"/>
+      <c r="S443" s="10"/>
+      <c r="T443" s="10"/>
+      <c r="U443" s="10"/>
+      <c r="V443" s="10"/>
+      <c r="W443" s="10"/>
+      <c r="X443" s="10"/>
+      <c r="Y443" s="10"/>
+      <c r="Z443" s="10"/>
+      <c r="AA443" s="10"/>
+      <c r="AB443" s="10"/>
+      <c r="AC443" s="10"/>
     </row>
     <row r="444" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444">

--- a/interview preparation.xlsx
+++ b/interview preparation.xlsx
@@ -3067,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C464" workbookViewId="0">
-      <selection activeCell="D470" sqref="D470"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="C50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3181,47 +3181,47 @@
       <c r="AB2" s="10"/>
       <c r="AC2" s="10"/>
     </row>
-    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -5146,44 +5146,44 @@
       <c r="AB49" s="11"/>
       <c r="AC49" s="11"/>
     </row>
-    <row r="50" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
         <v>52</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="9">
         <v>2</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
     </row>
     <row r="51" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51">
@@ -21124,44 +21124,44 @@
       <c r="AB467" s="3"/>
       <c r="AC467" s="3"/>
     </row>
-    <row r="468" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A468">
+    <row r="468" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="9">
         <v>470</v>
       </c>
-      <c r="B468">
+      <c r="B468" s="9">
         <v>15</v>
       </c>
-      <c r="C468" t="s">
+      <c r="C468" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="D468" t="s">
+      <c r="D468" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="E468" t="s">
+      <c r="E468" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="H468" s="1"/>
-      <c r="I468" s="1"/>
-      <c r="J468" s="1"/>
-      <c r="K468" s="1"/>
-      <c r="L468" s="1"/>
-      <c r="M468" s="1"/>
-      <c r="N468" s="1"/>
-      <c r="O468" s="1"/>
-      <c r="P468" s="1"/>
-      <c r="Q468" s="1"/>
-      <c r="R468" s="1"/>
-      <c r="S468" s="1"/>
-      <c r="T468" s="1"/>
-      <c r="U468" s="1"/>
-      <c r="V468" s="1"/>
-      <c r="W468" s="1"/>
-      <c r="X468" s="1"/>
-      <c r="Y468" s="1"/>
-      <c r="Z468" s="1"/>
-      <c r="AA468" s="1"/>
-      <c r="AB468" s="1"/>
-      <c r="AC468" s="1"/>
+      <c r="H468" s="11"/>
+      <c r="I468" s="11"/>
+      <c r="J468" s="11"/>
+      <c r="K468" s="11"/>
+      <c r="L468" s="11"/>
+      <c r="M468" s="11"/>
+      <c r="N468" s="11"/>
+      <c r="O468" s="11"/>
+      <c r="P468" s="11"/>
+      <c r="Q468" s="11"/>
+      <c r="R468" s="11"/>
+      <c r="S468" s="11"/>
+      <c r="T468" s="11"/>
+      <c r="U468" s="11"/>
+      <c r="V468" s="11"/>
+      <c r="W468" s="11"/>
+      <c r="X468" s="11"/>
+      <c r="Y468" s="11"/>
+      <c r="Z468" s="11"/>
+      <c r="AA468" s="11"/>
+      <c r="AB468" s="11"/>
+      <c r="AC468" s="11"/>
     </row>
     <row r="469" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="9">

--- a/interview preparation.xlsx
+++ b/interview preparation.xlsx
@@ -3067,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="C50" sqref="A50:XFD50"/>
+    <sheetView tabSelected="1" topLeftCell="C73" workbookViewId="0">
+      <selection activeCell="C80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3223,47 +3223,47 @@
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
     </row>
-    <row r="4" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -5185,44 +5185,44 @@
       <c r="AB50" s="11"/>
       <c r="AC50" s="11"/>
     </row>
-    <row r="51" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
         <v>53</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="9">
         <v>2</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
     </row>
     <row r="52" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52">
@@ -6334,44 +6334,44 @@
       <c r="AB79" s="11"/>
       <c r="AC79" s="11"/>
     </row>
-    <row r="80" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="80" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
         <v>82</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="9">
         <v>3</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="1"/>
-      <c r="Y80" s="1"/>
-      <c r="Z80" s="1"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="11"/>
+      <c r="AA80" s="11"/>
+      <c r="AB80" s="11"/>
+      <c r="AC80" s="11"/>
     </row>
     <row r="81" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81">

--- a/interview preparation.xlsx
+++ b/interview preparation.xlsx
@@ -3067,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC927"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" workbookViewId="0">
-      <selection activeCell="C80" sqref="A80:XFD80"/>
+    <sheetView tabSelected="1" topLeftCell="C139" workbookViewId="0">
+      <selection activeCell="C153" sqref="A153:XFD153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9157,44 +9157,44 @@
       <c r="AB152" s="11"/>
       <c r="AC152" s="11"/>
     </row>
-    <row r="153" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153">
+    <row r="153" spans="1:29" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="9">
         <v>155</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="9">
         <v>5</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
-      <c r="K153" s="1"/>
-      <c r="L153" s="1"/>
-      <c r="M153" s="1"/>
-      <c r="N153" s="1"/>
-      <c r="O153" s="1"/>
-      <c r="P153" s="1"/>
-      <c r="Q153" s="1"/>
-      <c r="R153" s="1"/>
-      <c r="S153" s="1"/>
-      <c r="T153" s="1"/>
-      <c r="U153" s="1"/>
-      <c r="V153" s="1"/>
-      <c r="W153" s="1"/>
-      <c r="X153" s="1"/>
-      <c r="Y153" s="1"/>
-      <c r="Z153" s="1"/>
-      <c r="AA153" s="1"/>
-      <c r="AB153" s="1"/>
-      <c r="AC153" s="1"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
+      <c r="N153" s="11"/>
+      <c r="O153" s="11"/>
+      <c r="P153" s="11"/>
+      <c r="Q153" s="11"/>
+      <c r="R153" s="11"/>
+      <c r="S153" s="11"/>
+      <c r="T153" s="11"/>
+      <c r="U153" s="11"/>
+      <c r="V153" s="11"/>
+      <c r="W153" s="11"/>
+      <c r="X153" s="11"/>
+      <c r="Y153" s="11"/>
+      <c r="Z153" s="11"/>
+      <c r="AA153" s="11"/>
+      <c r="AB153" s="11"/>
+      <c r="AC153" s="11"/>
     </row>
     <row r="154" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154">
